--- a/知识列表.xlsx
+++ b/知识列表.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
     <sheet name="面试题" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="精尽学习提纲" sheetId="3" r:id="rId3"/>
+    <sheet name="源码学习提纲" sheetId="4" r:id="rId4"/>
+    <sheet name="数据库设计" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="850">
   <si>
     <t>工具</t>
   </si>
@@ -1549,6 +1551,1023 @@
   </si>
   <si>
     <t>http://svip.iocoder.cn/distributed-transaction/Interview/</t>
+  </si>
+  <si>
+    <t>精尽 Netty 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Spring 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Spring Cloud 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Hibernate 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 RocketMQ 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 RabbitMQ 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Shiro 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Kafka 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Redis 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 MySQL 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Elasticsearch 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 MongoDB 学习指南</t>
+  </si>
+  <si>
+    <t>精尽设计模式学习指南</t>
+  </si>
+  <si>
+    <t>精尽数据结构与算法学习指南</t>
+  </si>
+  <si>
+    <t>精尽计算机网络学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Linux 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Git 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Maven 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Jenkins 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 IntelliJ IDEA 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Java【基础】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Java【并发】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Java【虚拟机】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Zookeeper 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Nginx 学习指南</t>
+  </si>
+  <si>
+    <t>精尽任务调度学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Docker 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Kubernetes 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 React 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Vue 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Angular 学习指南</t>
+  </si>
+  <si>
+    <t>精尽【项目实战】学习指南</t>
+  </si>
+  <si>
+    <t>精尽【大数据】学习指南</t>
+  </si>
+  <si>
+    <t>精尽【前端】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Go 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Python 学习指南</t>
+  </si>
+  <si>
+    <t>《Dubbo 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 项目结构一览</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— API 配置（一）之应用</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— API 配置（二）之服务提供者</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— API 配置（三）之服务消费者</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 属性配置</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— XML 配置</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 注解配置</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 外部化配置</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 核心流程一览</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 拓展机制 SPI</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 线程池</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务暴露（一）之本地暴露（Injvm）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务暴露（二）之远程暴露（Dubbo）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务引用（一）之本地引用（Injvm）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务引用（二）之远程引用（Dubbo）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— Zookeeper 客户端</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 注册中心（一）之抽象 API</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 注册中心（二）之 Zookeeper</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 注册中心（三）之 Redis</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 动态编译（一）之 Javassist</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 动态代理（一）之 Javassist</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 动态代理（二）之 JDK</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 动态代理（三）之本地存根 Stub</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（一）之本地调用（Injvm）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（二）之远程调用（Dubbo）【1】通信实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（二）之远程调用（Dubbo）【2】同步调用</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（三）之远程调用（Dubbo）【3】异步调用</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（三）之远程调用（HTTP）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（四）之远程调用（Hessian）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（五）之远程调用（WebService）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（六）之远程调用（REST）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（七）之远程调用（WebService）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（八）之远程调用（Redis）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务调用（九）之远程调用（Memcached）</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 调用特性（一）之回声测试</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 调用特性（二）之泛化引用</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 调用特性（三）之泛化实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（一）之 ClassLoaderFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（二）之 ContextFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（三）之 AccessLogFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（四）之 ActiveLimitFilter &amp;&amp; ExecuteLimitFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（五）之 TimeoutFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（六）之 DeprecatedFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（七）之 ExceptionFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（八）之 TokenFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（九）之 TpsLimitFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（十）之 CacheFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 过滤器（十一）之 ValidationFilter</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— NIO 服务器（一）之抽象 API</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— NIO 服务器（二）之 Transport 层</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— NIO 服务器（三）之 Telnet 层</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— NIO 服务器（四）之 Exchange 层</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— NIO 服务器（五）之 Buffer 层</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— NIO 服务器（六）之 Netty4 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— NIO 服务器（七）之 Netty3 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— HTTP 服务器</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 序列化（一）之总体实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 序列化（二）之 Dubbo 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 序列化（三）之 Kryo 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 服务容器</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（一）之抽象 API</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（二）之 Cluster 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（三）之 Directory 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（四）之 LoadBalance 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（五）之 Merger 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（六）之 Configurator 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（七）之 Router 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 集群容错（八）之 Mock 实现</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 优雅停机</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码解析 —— 日志适配</t>
+  </si>
+  <si>
+    <t>精尽 Dubbo 源码分析 —— 集成 Spring Cloud</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/Dubbo/</t>
+  </si>
+  <si>
+    <t>《Netty 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— NIO 基础（一）之简介</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— NIO 基础（二）之 Channel</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— NIO 基础（三）之 Buffer</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— NIO 基础（四）之 Selector</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— NIO 基础（五）之示例</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— Netty 简介（一）之项目结构</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— Netty 简介（二）之核心组件</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— 启动（一）之服务端</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码分析 —— 启动（二）之客户端</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（一）之 Reactor 模型</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（二）之 EventLoopGroup</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（三）之 EventLoop 初始化</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（四）之 EventLoop 运行</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（五）之 EventLoop 处理 IO 事件</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（六）之 EventLoop 处理普通任务</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（七）之 EventLoop 处理定时任务</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— EventLoop（八）之 EventLoop 优雅关闭</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelPipeline（一）之初始化</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelPipeline（二）之添加 ChannelHandler</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelPipeline（三）之移除 ChannelHandler</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelPipeline（四）之 Outbound 事件的传播</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelPipeline（五）之 Inbound 事件的传播</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelPipeline（六）之异常事件的传播</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（一）之简介</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（三）之 read 操作</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（二）之 accept 操作</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（四）之 write 操作</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（五）之 flush 操作</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（六）之 writeAndFlush 操作</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（七）之 close 操作</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Channel（八）之 disconnect 操作</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 ByteBuf（一）简介</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 ByteBuf（二）核心子类</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 ByteBuf（三）内存泄露检测</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 ByteBuf（四）其它子类</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 ByteBufAllocator（一）简介</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 ByteBufAllocator（二）UnpooledByteBufAllocator</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 ByteBufAllocator（三）PooledByteBufAllocator</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 Jemalloc（一）简介</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 Jemalloc（二）PoolChunk</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 Jemalloc（四）PoolChunkList</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 Jemalloc（三）PoolSubpage</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 Jemalloc（五）PoolArena</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Buffer 之 Jemalloc（六）PoolThreadCache</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelHandler（一）之简介</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelHandler（二）之 ChannelInitializer</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelHandler（三）之 SimpleChannelInboundHandler</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelHandler（四）之 LoggingHandler</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelHandler（五）之 IdleStateHandler</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— ChannelHandler（六）之 AbstractTrafficShapingHandler</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Codec 之 ByteToMessageDecoder（一）Cumulator</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Codec 之 ByteToMessageDecoder（二）FrameDecoder</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Codec 之 MessageToByteEncoder</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Codec 之 ByteToMessageCodec</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Codec 之 MessageToMessageCodec</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Util 之 Future</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Util 之 FastThreadLocal</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Util 之 Recycler</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Util 之 HashedWheelTimer</t>
+  </si>
+  <si>
+    <t>精尽 Netty 源码解析 —— Util 之 MpscUnboundedArrayQueue</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/Netty/</t>
+  </si>
+  <si>
+    <t>《Spring 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 Spring 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入理解 Spring IoC</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之 Spring 统一资源加载策略</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 BeanDefinition</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之获取验证模型</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之获取 Document 对象</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之注册 BeanDefinitions</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之解析Bean：解析 import 标签</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之解析 &lt;bean&gt; 标签：开启解析进程</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之解析 &lt;bean&gt; 标签：BeanDefinition</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之解析 &lt;bean&gt; 标签：meta、lookup-method、replace-method</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之解析 &lt;bean&gt; 标签：constructor-arg、property、qualifier</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之解析 &lt;bean&gt; 标签：解析自定义标签</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之解析自定义标签</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之注册解析的 BeanDefinitions</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之装载 BeanDefinitions 总结</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之开启 Bean 的加载</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— ﻿IoC 之加载 Bean：从单例缓存中获取单例 Bean</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— ﻿IoC 之加载 Bean：parentBeanFactory 与依赖处理</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：分析各 scope 的 Bean 创建</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：创建 Bean（一）之主流程</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：创建 Bean（二）之实例化 Bean 对象(1)</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：创建 Bean（三）之实例化 Bean 对象(2)</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：创建 Bean（四）之属性填充</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：创建 Bean（五）之循环依赖处理</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：创建 Bean（六）之初始化 Bean 对象</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：总结</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 Aware 接口</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 ﻿BeanPostProcessor</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 InitializingBean 和 init-method</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 Bean 的生命周期</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 BeanFactoryPostProcessor</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 PropertyPlaceholderConfigurer</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之 PropertyPlaceholderConfigurer 的应用</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 PropertyOverrideConfigurer</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之深入分析 Bean 的类型转换体系</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之自定义类型转换器</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之分析 BeanWrapper</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之 Bean 的实例化策略：InstantiationStrategy</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之 BeanDefinition 注册表：BeanDefinitionRegistry</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— 环境 &amp; 属性：PropertySource、Environment、Profile</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— ApplicationContext 相关接口架构分析</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— 深入分析 ApplicationContext 的 refresh()</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— 4 张图带你读懂 Spring IoC 的世界</t>
+  </si>
+  <si>
+    <t>精尽 Spring 源码分析 —— AOP 源码简单导读</t>
+  </si>
+  <si>
+    <t>精尽 Spring 源码分析 —— Transaction 源码简单导读</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/Spring/</t>
+  </si>
+  <si>
+    <t>《Spring MVC 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— 容器的初始化（一）之 Root WebApplicationContext 容器</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— 容器的初始化（二）之 Servlet WebApplicationContext 容器</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— 容器的初始化（三）之 Servlet 3.0 集成</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— 容器的初始化（四）之 Spring Boot 集成</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— 组件一览</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— 请求处理一览</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— HandlerMapping 组件（一）之 AbstractHandlerMapping</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码分析 —— HandlerMapping 组件（二）之 HandlerInterceptor</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerMapping 组件（三）之 AbstractHandlerMethodMapping</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerMapping 组件（四）之 AbstractUrlHandlerMapping</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerAdapter 组件（一）之 HandlerAdapter</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerAdapter 组件（二）之 ServletInvocableHandlerMethod</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerAdapter 组件（三）之 HandlerMethodArgumentResolver</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerAdapter 组件（四）之 HandlerMethodReturnValueHandler</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerAdapter 组件（五）之 HttpMessageConverter</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— HandlerExceptionResolver 组件</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— RequestToViewNameTranslator 组件</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— LocaleResolver 组件</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— ThemeResolver 组件</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— ViewResolver 组件</t>
+  </si>
+  <si>
+    <t>精尽 Spring MVC 源码解析 —— MultipartResolver 组件</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/Spring-MVC/</t>
+  </si>
+  <si>
+    <t>《Spring Boot 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— 项目结构一览</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码解析 —— Jar 启动实现</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— SpringApplication</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— 自动配置</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— Condition</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— ServletWebServerApplicationContext</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— ReactiveWebServerApplicationContext</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— ApplicationContextInitializer</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— ApplicationListener</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— 配置加载</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— 日志系统</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— @ConfigurationProperties</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— BeanDefinitionLoader</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— SpringFactoriesLoader</t>
+  </si>
+  <si>
+    <t>精尽 Spring Boot 源码分析 —— AutoConfigurationMetadataLoader</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/Spring-Boot/</t>
+  </si>
+  <si>
+    <t>《MyBatis 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 项目结构一览</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 解析器模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 反射模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 异常模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 数据源模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 事务模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 缓存模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 类型模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— IO 模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 日志模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 注解模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— Binding 模块</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— MyBatis 初始化（一）之加载 mybatis-config</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— MyBatis 初始化（二）之加载 Mapper 映射配置文件</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— MyBatis 初始化（三）之加载 Statement 配置</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— MyBatis 初始化（四）之加载注解配置</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— SQL 初始化（上）之 SqlNode</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— SQL 初始化（下）之 SqlSource</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— SQL 执行（一）之 Executor</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— SQL 执行（二）之 StatementHandler</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— SQL 执行（三）之 KeyGenerator</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— SQL 执行（四）之 ResultSetHandler</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— SQL 执行（五）之延迟加载</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 会话 SqlSession</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 插件体系（一）之原理</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 插件体系（二）之 PageHelper</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码解析 —— Spring 集成（一）之调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码解析 —— Spring 集成（二）之初始化</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码解析 —— Spring 集成（三）之 SqlSession</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码解析 —— Spring 集成（四）之事务</t>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码解析 —— Spring 集成（五）之批处理</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/MyBatis/</t>
+  </si>
+  <si>
+    <t>《Redis 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 Redis 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 Redisson 源码分析 —— 调试环境搭建</t>
+  </si>
+  <si>
+    <t>精尽 Redisson 源码分析 —— 限流器 RateLimiter</t>
+  </si>
+  <si>
+    <t>精尽 Redisson 源码分析 —— 可重入分布式锁 ReentrantLock</t>
+  </si>
+  <si>
+    <t>精尽 Redisson 源码分析 —— 可靠分布式锁 RedLock</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/Redis/</t>
+  </si>
+  <si>
+    <t>《JDK 源码解析》</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 调试环境搭建（一）入门</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 调试环境搭建（二）进阶</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 集合（一）数组 ArrayList</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 集合（二）链表 LinkedList</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 集合（三）哈希表 HashMap</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 集合（四）哈希表 LinkedHashMap</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 集合（五）哈希集合 HashSet</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 集合（六）TreeMap</t>
+  </si>
+  <si>
+    <t>精尽 JDK 源码解析 —— 集合（七）TreeSet</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/JDK/</t>
+  </si>
+  <si>
+    <t>数据库实体设计</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.1）之商品信息</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.2）之商品详情</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.3）之商品分组</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.4）之商品快照</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.1）之订单信息</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.2）之物流信息（快递发货）</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.3）之物流信息（上门自提）</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.4）之物流信息（同城配送）</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.5）之退款维权</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.6）之购物车</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 公用（3.1）之地区信息</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.1）之优惠劵&amp;&amp;优惠码</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.2）之限制折扣</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.3）之赠品</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.4）之满减送</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.5）之优惠套餐</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.6）之打包一口价</t>
+  </si>
+  <si>
+    <t>参考:</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/%E6%95%B0%E6%8D%AE%E5%BA%93%E5%AE%9E%E4%BD%93%E8%AE%BE%E8%AE%A1/</t>
   </si>
 </sst>
 </file>
@@ -1556,17 +2575,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1586,96 +2629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1691,6 +2644,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1699,7 +2676,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,6 +2699,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1729,11 +2744,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1752,7 +2780,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +2852,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,31 +2924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,7 +2942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1830,109 +2954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,19 +3001,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,6 +3037,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2038,8 +3066,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2048,153 +3076,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2203,25 +3234,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,13 +3608,13 @@
   <sheetPr/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5555555555556" style="7" customWidth="1"/>
+    <col min="1" max="1" width="22.5555555555556" style="11" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.4444444444444" customWidth="1"/>
@@ -2588,7 +3622,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2596,7 +3630,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2619,13 +3653,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -2639,7 +3673,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -2656,7 +3690,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -2665,7 +3699,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
@@ -2673,16 +3707,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
@@ -2690,7 +3724,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
@@ -2699,7 +3733,7 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E7" t="s">
@@ -2707,7 +3741,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
@@ -2724,10 +3758,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
@@ -2735,47 +3769,47 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E12" t="s">
@@ -2783,10 +3817,10 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
@@ -2800,7 +3834,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
@@ -2814,10 +3848,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C15" t="s">
@@ -2825,7 +3859,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
@@ -2839,7 +3873,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B17" t="s">
@@ -2848,7 +3882,7 @@
       <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E17" t="s">
@@ -2856,7 +3890,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B18" t="s">
@@ -2870,13 +3904,13 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -2884,7 +3918,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
@@ -2898,18 +3932,18 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B22" t="s">
@@ -2923,13 +3957,13 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D23" t="s">
@@ -2940,16 +3974,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E24" t="s">
@@ -2957,7 +3991,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B25" t="s">
@@ -2968,10 +4002,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C26" t="s">
@@ -2982,7 +4016,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B27" t="s">
@@ -2999,7 +4033,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B28" t="s">
@@ -3045,17 +4079,17 @@
   <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="B386" sqref="B386"/>
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.4444444444444" style="7" customWidth="1"/>
     <col min="2" max="2" width="75.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3155,15 +4189,15 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3278,7 +4312,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B46" t="s">
@@ -3286,12 +4320,12 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3371,7 +4405,7 @@
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="7" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3396,7 +4430,7 @@
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3431,7 +4465,7 @@
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="7" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3461,7 +4495,7 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="7" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3511,7 +4545,7 @@
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3526,7 +4560,7 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="7" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3556,7 +4590,7 @@
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3606,12 +4640,12 @@
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3631,7 +4665,7 @@
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3671,7 +4705,7 @@
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="7" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3716,7 +4750,7 @@
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="7" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3796,12 +4830,12 @@
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="7" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3871,7 +4905,7 @@
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="7" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3921,7 +4955,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B177" t="s">
@@ -3929,12 +4963,12 @@
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="7" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3959,7 +4993,7 @@
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="7" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4014,7 +5048,7 @@
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="7" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4064,7 +5098,7 @@
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="7" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4099,7 +5133,7 @@
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="7" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4159,7 +5193,7 @@
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="7" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4229,7 +5263,7 @@
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="7" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4254,7 +5288,7 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B244" t="s">
@@ -4262,7 +5296,7 @@
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4302,7 +5336,7 @@
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4332,7 +5366,7 @@
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="7" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4367,7 +5401,7 @@
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="7" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4397,7 +5431,7 @@
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4432,7 +5466,7 @@
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="7" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4452,7 +5486,7 @@
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4467,7 +5501,7 @@
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4487,7 +5521,7 @@
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4592,7 +5626,7 @@
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B313" t="s">
@@ -4600,7 +5634,7 @@
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4715,7 +5749,7 @@
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="7" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4785,7 +5819,7 @@
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B352" t="s">
@@ -4793,7 +5827,7 @@
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="8" t="s">
         <v>451</v>
       </c>
     </row>
@@ -4863,7 +5897,7 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B368" t="s">
@@ -4871,7 +5905,7 @@
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5016,7 +6050,7 @@
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B399" t="s">
@@ -5024,7 +6058,7 @@
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="6" t="s">
+      <c r="A401" s="8" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5099,14 +6133,17 @@
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="6" t="s">
         <v>510</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B416" r:id="rId1" display="http://svip.iocoder.cn/distributed-transaction/Interview/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -5116,16 +6153,1783 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="55.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="17.4" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" ht="17.4" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" ht="17.4" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" ht="17.4" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" ht="17.4" spans="1:1">
+      <c r="A7" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" ht="17.4" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" ht="17.4" spans="1:1">
+      <c r="A9" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" ht="17.4" spans="1:1">
+      <c r="A10" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" ht="17.4" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" ht="17.4" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" ht="17.4" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" ht="17.4" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" ht="17.4" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" ht="17.4" spans="1:1">
+      <c r="A16" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" ht="17.4" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" ht="17.4" spans="1:1">
+      <c r="A18" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" ht="17.4" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" ht="17.4" spans="1:1">
+      <c r="A20" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" ht="17.4" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" ht="17.4" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="23" ht="17.4" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" ht="17.4" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" ht="17.4" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" ht="17.4" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" ht="17.4" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" ht="17.4" spans="1:1">
+      <c r="A28" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="29" ht="17.4" spans="1:1">
+      <c r="A29" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" ht="17.4" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" ht="17.4" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" ht="17.4" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" ht="17.4" spans="1:1">
+      <c r="A33" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="34" ht="17.4" spans="1:1">
+      <c r="A34" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" ht="17.4" spans="1:1">
+      <c r="A35" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="36" ht="17.4" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" ht="17.4" spans="1:1">
+      <c r="A37" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="38" ht="17.4" spans="1:1">
+      <c r="A38" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" ht="17.4" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="40" ht="17.4" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="41" ht="17.4" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:B288"/>
+  <sheetViews>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="35.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="92.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="2:2">
+      <c r="B8" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="2:2">
+      <c r="B9" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="2:2">
+      <c r="B12" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="2:2">
+      <c r="B13" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="2:2">
+      <c r="B14" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="2:2">
+      <c r="B15" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="2:2">
+      <c r="B16" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="2:2">
+      <c r="B17" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="2:2">
+      <c r="B18" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="2:2">
+      <c r="B19" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="2:2">
+      <c r="B20" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="2:2">
+      <c r="B21" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="2:2">
+      <c r="B22" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="2:2">
+      <c r="B24" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="2:2">
+      <c r="B25" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="2:2">
+      <c r="B26" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="2:2">
+      <c r="B27" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="2:2">
+      <c r="B28" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="2:2">
+      <c r="B29" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="2:2">
+      <c r="B30" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="2:2">
+      <c r="B31" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="2:2">
+      <c r="B32" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="2:2">
+      <c r="B33" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="2:2">
+      <c r="B35" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="2:2">
+      <c r="B37" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="2:2">
+      <c r="B38" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="2:2">
+      <c r="B39" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="2:2">
+      <c r="B40" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="2:2">
+      <c r="B41" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="2:2">
+      <c r="B42" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="43" ht="15.6" spans="2:2">
+      <c r="B43" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" ht="15.6" spans="2:2">
+      <c r="B44" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="2:2">
+      <c r="B45" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="2:2">
+      <c r="B46" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="2:2">
+      <c r="B47" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="2:2">
+      <c r="B48" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="2:2">
+      <c r="B49" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="50" ht="15.6" spans="2:2">
+      <c r="B50" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="51" ht="15.6" spans="2:2">
+      <c r="B51" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="2:2">
+      <c r="B52" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="2:2">
+      <c r="B53" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="54" ht="15.6" spans="2:2">
+      <c r="B54" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="55" ht="15.6" spans="2:2">
+      <c r="B55" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="56" ht="15.6" spans="2:2">
+      <c r="B56" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="57" ht="15.6" spans="2:2">
+      <c r="B57" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" ht="15.6" spans="2:2">
+      <c r="B58" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="59" ht="15.6" spans="2:2">
+      <c r="B59" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="60" ht="15.6" spans="2:2">
+      <c r="B60" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="61" ht="15.6" spans="2:2">
+      <c r="B61" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="62" ht="15.6" spans="2:2">
+      <c r="B62" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" ht="15.6" spans="2:2">
+      <c r="B63" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="64" ht="15.6" spans="2:2">
+      <c r="B64" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" spans="2:2">
+      <c r="B65" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="66" ht="15.6" spans="2:2">
+      <c r="B66" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="67" ht="15.6" spans="2:2">
+      <c r="B67" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="68" ht="15.6" spans="2:2">
+      <c r="B68" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" ht="15.6" spans="2:2">
+      <c r="B69" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="70" ht="15.6" spans="2:2">
+      <c r="B70" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" ht="15.6" spans="2:2">
+      <c r="B71" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="72" ht="15.6" spans="2:2">
+      <c r="B72" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" ht="15.6" spans="2:2">
+      <c r="B73" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74" ht="15.6" spans="2:2">
+      <c r="B74" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75" ht="15.6" spans="2:2">
+      <c r="B75" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B189" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B214" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B233" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B268" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B276" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B140" r:id="rId1" display="http://svip.iocoder.cn/categories/Netty/"/>
+    <hyperlink ref="B288" r:id="rId2" display="http://svip.iocoder.cn/categories/JDK/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="101.555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>848</v>
+      </c>
+      <c r="B20" t="s">
+        <v>849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/知识列表.xlsx
+++ b/知识列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25260" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1019">
   <si>
     <t>工具</t>
   </si>
@@ -1553,6 +1553,15 @@
     <t>http://svip.iocoder.cn/distributed-transaction/Interview/</t>
   </si>
   <si>
+    <t>目录</t>
+  </si>
+  <si>
+    <t>知识点</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>精尽 Netty 学习指南</t>
   </si>
   <si>
@@ -1592,85 +1601,605 @@
     <t>精尽 Redis 学习指南</t>
   </si>
   <si>
+    <t>精尽 Elasticsearch 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 MongoDB 学习指南</t>
+  </si>
+  <si>
+    <t>精尽设计模式学习指南</t>
+  </si>
+  <si>
+    <t>精尽数据结构与算法学习指南</t>
+  </si>
+  <si>
+    <t>精尽计算机网络学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Linux 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Git 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Maven 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Jenkins 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 IntelliJ IDEA 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Java【基础】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Java【并发】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Java【虚拟机】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Zookeeper 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Nginx 学习指南</t>
+  </si>
+  <si>
+    <t>精尽任务调度学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Docker 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Kubernetes 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 React 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Vue 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Angular 学习指南</t>
+  </si>
+  <si>
+    <t>精尽【项目实战】学习指南</t>
+  </si>
+  <si>
+    <t>精尽【大数据】学习指南</t>
+  </si>
+  <si>
+    <t>精尽【前端】学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Go 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Python 学习指南</t>
+  </si>
+  <si>
     <t>精尽 MySQL 学习指南</t>
   </si>
   <si>
-    <t>精尽 Elasticsearch 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 MongoDB 学习指南</t>
-  </si>
-  <si>
-    <t>精尽设计模式学习指南</t>
-  </si>
-  <si>
-    <t>精尽数据结构与算法学习指南</t>
-  </si>
-  <si>
-    <t>精尽计算机网络学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Linux 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Git 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Maven 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Jenkins 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 IntelliJ IDEA 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Java【基础】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Java【并发】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Java【虚拟机】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Zookeeper 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Nginx 学习指南</t>
-  </si>
-  <si>
-    <t>精尽任务调度学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Docker 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Kubernetes 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 React 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Vue 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Angular 学习指南</t>
-  </si>
-  <si>
-    <t>精尽【项目实战】学习指南</t>
-  </si>
-  <si>
-    <t>精尽【大数据】学习指南</t>
-  </si>
-  <si>
-    <t>精尽【前端】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Go 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Python 学习指南</t>
+    <t>隔离级别</t>
+  </si>
+  <si>
+    <t>RAED UNCOMMITED 读取未提交内容</t>
+  </si>
+  <si>
+    <t>使用查询语句不会加锁，可能会读到未提交的行（Dirty Read）</t>
+  </si>
+  <si>
+    <t>READ COMMITED 读取提交内容</t>
+  </si>
+  <si>
+    <t>只对记录加记录锁，而不会在记录之间加间隙锁，所以允许新的记录插入到被锁定记录的附近，
+所以再多次使用查询语句时，可能得到不同的结果（Non-Repeatable Read）；</t>
+  </si>
+  <si>
+    <t>REPEATABLE READ 可重复读</t>
+  </si>
+  <si>
+    <t>多次读取同一范围的数据会返回第一次查询的快照，不会返回不同的数据行，但是可能发生幻读（Phantom Read）；通过行级锁+MVCC实现</t>
+  </si>
+  <si>
+    <t>SERIALIZABLE 串行化</t>
+  </si>
+  <si>
+    <t>锁类型</t>
+  </si>
+  <si>
+    <t>共享锁（S Lock）</t>
+  </si>
+  <si>
+    <t>Shared Locks,允许其他事务再加共享锁，不允许其他事务再加排他锁；select…lock in share mode</t>
+  </si>
+  <si>
+    <t>排它锁 (X Lock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exclusive Locks,其它事务无法再对该数据加共享或者排他锁。select…for update</t>
+  </si>
+  <si>
+    <t>锁种类</t>
+  </si>
+  <si>
+    <t>加锁是加在索引上的</t>
+  </si>
+  <si>
+    <t>表级锁</t>
+  </si>
+  <si>
+    <t>是MySQL中锁定粒度最大的一种锁，表示对当前操作的整张表加锁，它实现简单，资源消耗较少，
+被大部分MySQL引擎支持。最常使用的MyISAM与InnoDB都支持表级锁定。表级锁分为表共享读锁与表独占写锁。</t>
+  </si>
+  <si>
+    <t>行级锁</t>
+  </si>
+  <si>
+    <t>是mysql中锁定粒度最细的一种锁，表示只针对当前操作的行进行加锁。行级锁能大大减少数据库操作的冲突，其加锁粒度最小，但是加锁的开销也最大，行级锁分为共享锁和排它锁。</t>
+  </si>
+  <si>
+    <t>页级锁</t>
+  </si>
+  <si>
+    <t>GAP锁（间隙锁）</t>
+  </si>
+  <si>
+    <t>在RR隔离级别下，为了防止幻读，于是有gap锁和next-key锁存在，除了对唯一索引的唯一搜索外都会获取gap锁或next-key锁。即锁住其扫描的范围。</t>
+  </si>
+  <si>
+    <t>意向锁</t>
+  </si>
+  <si>
+    <t>Intention Locks, innodb的意向锁主要用户多粒度的锁并存的情况。比如事务A要在一个表上加S锁，如果表中的一行已被事务B加了X锁，那么该锁的申请也应被阻塞。如果表中的数据很多，逐行检查锁标志的开销将很大，系统的性能将会受到影响。为了解决这个问题，可以在表级上引入新的锁类型来表示其所属行的加锁情况，这就引出了“意向锁”的概念。举个例子，如果表中记录1亿，事务A把其中有几条记录上了行锁了，这时事务B需要给这个表加表级锁，如果没有意向锁的话，那就要去表中查找这一亿条记录是否上锁了。如果存在意向锁，那么假如事务Ａ在更新一条记录之前，先加意向锁，再加Ｘ锁，事务B先检查该表上是否存在意向锁，存在的意向锁是否与自己准备加的锁冲突，如果有冲突，则等待直到事务Ａ释放，而无须逐条记录去检测。事务Ｂ更新表时，其实无须知道到底哪一行被锁了，它只要知道反正有一行被锁了就行了。</t>
+  </si>
+  <si>
+    <t>意向共享锁（IS Lock）</t>
+  </si>
+  <si>
+    <t>事务想要获得一张表中某几行的共享锁</t>
+  </si>
+  <si>
+    <t>意向排他锁（IX Lock）</t>
+  </si>
+  <si>
+    <t>事务想要获得一张表中某几行的排他锁；</t>
+  </si>
+  <si>
+    <t>死锁</t>
+  </si>
+  <si>
+    <t>事物A持久资源1的锁，事务B持有资源2的锁、事务A等待资源2的锁，事务B等待资源1的锁</t>
+  </si>
+  <si>
+    <t>MVCC 多版本控制（Multiversion Concurrency Control）</t>
+  </si>
+  <si>
+    <t>MVCC概念</t>
+  </si>
+  <si>
+    <t>多版本控制（Multiversion Concurrency Control）: 指的是一种提高并发的技术。最早的数据库系统，只有读读之间可以并发，读写，写读，写写都要阻塞。引入多版本之后，只有写写之间相互阻塞，其他三种操作都可以并行，这样大幅度提高了InnoDB的并发度。在内部实现中，InnoDB通过undo log保存每条数据的多个版本，并且能够找回数据历史版本提供给用户读，每个事务读到的数据版本可能是不一样的。在同一个事务中，用户只能看到该事务创建快照之前已经提交的修改和该事务本身做的修改。
+ MVCC在 Read Committed 和 Repeatable Read两个隔离级别下工作。
+MySQL的InnoDB存储引擎默认事务隔离级别是RR(可重复读)，是通过 "行级锁+MVCC"一起实现的，正常读的时候不加锁，写的时候加锁。而 MVCC 的实现依赖：隐藏字段、Read View、Undo log。</t>
+  </si>
+  <si>
+    <t>参考：（https://blog.csdn.net/Waves___/article/details/105295060）</t>
+  </si>
+  <si>
+    <t>隐藏字段</t>
+  </si>
+  <si>
+    <t>InnoDB存储引擎在每行数据的后面添加了三个隐藏字段</t>
+  </si>
+  <si>
+    <t>DB_TRX_ID</t>
+  </si>
+  <si>
+    <t>6字节，表示最近一次对本激励行作修改（insert|update）的事务ID。至于delete操作,InnoDB认为是一个update操作，不过会更新一个另外的删除位，将表示为deleted.并非真正的删除。</t>
+  </si>
+  <si>
+    <t>DB_ROLL_PTR</t>
+  </si>
+  <si>
+    <t>7字节，回滚指针，指向当前记录行的undo log信息</t>
+  </si>
+  <si>
+    <t>DB_ROW_ID</t>
+  </si>
+  <si>
+    <t>6字节，随着新行插入而单调递增的行ID。理解：当表没有主键或唯一非空索引时，innodb就会使用这个行ID自动产生聚簇索引。如果表有主键或唯一非空索引，聚簇索引就不会包含这个行ID了。这个DB_ROW_ID跟MVCC关系不大。</t>
+  </si>
+  <si>
+    <t>Read View结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 其实Read View（读视图），跟快照、snapshot是一个概念。 Read View主要是用来做可见性判断的, 里面保存了“对本事务不可见的其他活跃事务”。</t>
+  </si>
+  <si>
+    <t>low_limit_id</t>
+  </si>
+  <si>
+    <t>目前出现过的最大的事务ID+1，即下一个将被分配的事务ID</t>
+  </si>
+  <si>
+    <t>up_limit_id</t>
+  </si>
+  <si>
+    <t>活跃事务列表trx_ids中最小的事务ID，如果trx_ids为空，则up_limit_id 为 low_limit_id</t>
+  </si>
+  <si>
+    <t>trx_ids</t>
+  </si>
+  <si>
+    <t>Read View创建时其他未提交的活跃事务ID列表，创建Read View时，将当前未提交事务ID记录下来，后续即使它们修改了记录行的值，对于当前事务也是不可见的。</t>
+  </si>
+  <si>
+    <t>creator_trx_id</t>
+  </si>
+  <si>
+    <t>当前创建事务的ID，是一个递增的编号</t>
+  </si>
+  <si>
+    <t>Undo log</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Undo log中存储的是老版本数据，当一个事务需要读取记录行时，如果当前记录行不可见，可以顺着undo log链找到满足其可见性条件的记录行版本。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert undo log </t>
+  </si>
+  <si>
+    <t>事务对insert新记录时产生的undo log, 只在事务回滚时需要, 并且在事务提交后就可以立即丢弃。</t>
+  </si>
+  <si>
+    <t>update undo log</t>
+  </si>
+  <si>
+    <t>事务对记录进行delete和update操作时产生的undo log，不仅在事务回滚时需要，快照读也需要，只有当数据库所使用的快照中不涉及该日志记录，对应的回滚日志才会被purge线程删除。</t>
+  </si>
+  <si>
+    <t>ACID</t>
+  </si>
+  <si>
+    <t>Atomicity 原子性</t>
+  </si>
+  <si>
+    <t>事务一起成功或一起失败,回滚日志 undo log实现</t>
+  </si>
+  <si>
+    <t>Consistency 一致性</t>
+  </si>
+  <si>
+    <t>表示事务完成后，符合逻辑运算</t>
+  </si>
+  <si>
+    <t>Isolation 隔离性</t>
+  </si>
+  <si>
+    <t>排除其他事务对本事务的影响</t>
+  </si>
+  <si>
+    <t>Durability 持久性</t>
+  </si>
+  <si>
+    <t>事务结束后的数据不随着外界原因导致数据丢失</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>MyISAM</t>
+  </si>
+  <si>
+    <t>tableName.frm</t>
+  </si>
+  <si>
+    <t>frame表结构</t>
+  </si>
+  <si>
+    <t>tableName.myd</t>
+  </si>
+  <si>
+    <t>myISAM data数据文件</t>
+  </si>
+  <si>
+    <t>tableName.myi</t>
+  </si>
+  <si>
+    <t>myISAM index索引文件</t>
+  </si>
+  <si>
+    <t>InnoDB</t>
+  </si>
+  <si>
+    <t>frame结构文件</t>
+  </si>
+  <si>
+    <t>tableName.ibd</t>
+  </si>
+  <si>
+    <t>索引、数据集合文件</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>聚集索引</t>
+  </si>
+  <si>
+    <t>就是叶子节点包含完整的数据列</t>
+  </si>
+  <si>
+    <t>稀疏索引</t>
+  </si>
+  <si>
+    <t>如MyISAM，叶子节点只包含数据的指针</t>
+  </si>
+  <si>
+    <t>索引优化</t>
+  </si>
+  <si>
+    <t>全值匹配</t>
+  </si>
+  <si>
+    <t>用等于查询</t>
+  </si>
+  <si>
+    <t>最左前缀</t>
+  </si>
+  <si>
+    <t>从索引的最左前列开始并且不跳过索引中的列</t>
+  </si>
+  <si>
+    <t>不要在索引上做任何操作</t>
+  </si>
+  <si>
+    <t>运算、函数、类型转换等</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>数据库开发规范</t>
+  </si>
+  <si>
+    <t>数据库命名规范</t>
+  </si>
+  <si>
+    <t>1.所有的数据库对象名称必须使用小写字母并用下划线分割</t>
+  </si>
+  <si>
+    <t>mysql数据库大小写敏感。例如: 不同的数据库名  DbName dbname 不同的表名 Table table taBLe</t>
+  </si>
+  <si>
+    <t>2.所有数据库对象名称禁止使用mysql保留关键字</t>
+  </si>
+  <si>
+    <t>例如 ：select id , username , from ,age from table_user 会造成mysql 歧义</t>
+  </si>
+  <si>
+    <t>3.数据库对象的命名要做到见名识义，并且最好不要超过32个字符</t>
+  </si>
+  <si>
+    <t>4.所有的临时表必须义tmp为前缀并且已日期为后缀，备份库备份表必须义bak为前缀并且已日期为后缀</t>
+  </si>
+  <si>
+    <t>5.所有的数据存储的列名和列类型必须一致？？</t>
+  </si>
+  <si>
+    <t>存储规范</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.所有的表必须使用Innodb存储引擎 </t>
+  </si>
+  <si>
+    <t>支持事物行级锁，更好的恢复性，并发性能更好</t>
+  </si>
+  <si>
+    <t>2.大部分数据库表字符集要统一</t>
+  </si>
+  <si>
+    <t>3.所有的表和字段都要添加注释</t>
+  </si>
+  <si>
+    <t>4.尽量控制单表的数据量大小，建议控制在500万以内</t>
+  </si>
+  <si>
+    <t>过大可以通过历史数据归档，分库分表的手段来控制数据量的大小</t>
+  </si>
+  <si>
+    <t>5.尽量做到冷热数据分离，减少表的宽度</t>
+  </si>
+  <si>
+    <t>列最大4096列，减少磁盘io,保证热数据的内存缓存命中率，控制列数量也可以更加有效的利用缓存，避免读入无用的冷数据经常使用的列放在一个表中</t>
+  </si>
+  <si>
+    <t>6.禁止在表中建立预留字段</t>
+  </si>
+  <si>
+    <t>预留字段命名很难做到见识义，无法选择合适的类型，对预留字段修改会对表进行锁定</t>
+  </si>
+  <si>
+    <t>行为规范</t>
+  </si>
+  <si>
+    <t>1.禁止存储图片，文件等二进制文件，造成大量的io操作</t>
+  </si>
+  <si>
+    <t>2.禁止再线上进行数据库的压力测试</t>
+  </si>
+  <si>
+    <t>3.禁止从开发环境测试环境直连生产环境</t>
+  </si>
+  <si>
+    <t>数据库索引设计规范</t>
+  </si>
+  <si>
+    <t>1.建议单表索引数量不超过5个</t>
+  </si>
+  <si>
+    <t>索引并不是越多越好过多索引降低效率，优化器过多索引选出最优解，innodb 是按照哪个索引的顺序来组织表的呢？ 主键。不使用更新频繁的列作为主键，不使用多列主键。不使用uuid,md5,hash 字符串列作为主键  不能保证顺序增长。</t>
+  </si>
+  <si>
+    <t>2.那些哪些列上建立索引</t>
+  </si>
+  <si>
+    <t>1.经常在select update delete语句的where从句的列建立索引 2.包含在order by , group by , distinct 中的字段 3.多表join的关联列</t>
+  </si>
+  <si>
+    <t>3.如何选择索引的顺序？</t>
+  </si>
+  <si>
+    <t>联合索引中索引从左到右的顺序。 建立索引的目的是为了查询数据的时候可以根据索引来进行数据查找-- 从而减少磁盘的随机io , 增加查询的性能，所以
+ 如果我们的索引能够过滤出更少的数据那么我们从磁盘读入的数据则越少。1.区分度最高的列放在联合索引的最左侧 区分度--数据唯一值的数量/总行数 区分度最大的就应该是主键了
+   2.尽量字段长度小的列放在联合索引的最左侧 
+   3.使用最频繁的列放在最左侧 
+   4，尽量避免冗余和重复的索引   重复索引了： primary key(id) , index(id) , unique index(id)
+      冗余： index(a,b,c) , index(a.b)
+   5.对于频繁使用的查询先优先考虑覆盖索引（包含了所有的查询字段的索引）
+   6.尽量使用外键 不建议使用外检约束，但是一定要在表与表之间的关联键上建立索引</t>
+  </si>
+  <si>
+    <t>数据库字段设计规范</t>
+  </si>
+  <si>
+    <t>1.优先选择符合存储需要的最小的数据类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.将字符串转换成数字类型存储  INET_ATON('255.255.255.255') = 4294967295 字符串转ip 2.对于非负数据采用无符号整形进行存储  signed int -2147483648 -- 2147483647 3.VARCHAR(N)中的N代表的是字符数而不是字节数 4.过大的长度会消耗更多的内存 varchar是一个可变的长度</t>
+  </si>
+  <si>
+    <t>2.避免使用text,blob数据类型</t>
+  </si>
+  <si>
+    <t>建议blob或者时text分离到单独的表中，避免使用enum数据类型</t>
+  </si>
+  <si>
+    <t>3.尽可能的所有列都定义为NOT NULL</t>
+  </si>
+  <si>
+    <t>索引null列需要额外的空间来保存，所以需要占用更多的空间，进行比较和计算的时候要对null值进行特别的处理</t>
+  </si>
+  <si>
+    <t>4.字符串存储日期型的数据不是正确的</t>
+  </si>
+  <si>
+    <t>无法用日期函数来进行计算和比较，用字符串存储日期要占用更多的空间</t>
+  </si>
+  <si>
+    <t>5.财务相关的金额类数据，必须由decimal类型存储</t>
+  </si>
+  <si>
+    <t>decimal类型为精准的浮点数，在计算时不会丢失精度</t>
+  </si>
+  <si>
+    <t>数据库的sql开发规范</t>
+  </si>
+  <si>
+    <t>1.建议使用预编译语句对数据库进行操作</t>
+  </si>
+  <si>
+    <t>2.避免数据类型的隐式转换,不同表的相同列的数据类型不一致,会导致索引失效</t>
+  </si>
+  <si>
+    <t>3.重复利用已经存在的索引</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.避免使用双%%的查询条件 如 a like '%1323%'
+    2.一个sql只能利用到复合索引中的一列进行范围查询
+    有 a,b,c列的联合索引，在查询条件中有a列的范围查询，则在b,c列上的索引将不会被用到，
+    在定义联合索引时，如果a列要用到范围查找的话，就要把a列放到联合索引的右侧
+    3.使用left join 或者not exists 来优化not in（偶尔也会导致索引失效） 操作 </t>
+  </si>
+  <si>
+    <t>4.程序链接不同数据库要使用不同的账号，禁止跨库连接为迁移和分库分表做预备</t>
+  </si>
+  <si>
+    <t>5.禁止select * 必须使用select &lt;字段列表&gt; （* 无法覆盖索引  减少表结构变更 对程序带来的影响）</t>
+  </si>
+  <si>
+    <t>6.insert 明确字段列表</t>
+  </si>
+  <si>
+    <t>7.禁止使用子查询，可以把子查询优化为join操作</t>
+  </si>
+  <si>
+    <t>子查询结果集无法使用索引，子查询会产生临时表操作，如果子查询数据量大则会更严重</t>
+  </si>
+  <si>
+    <t>8.避免使用过多的join 关联表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">于Mysql来说，是存在关联缓存的，缓存的大小可以由join_buffer_size参数进行设置
+   在Mysql中，对于同一个SQL多关联（join）一个表，就会多分配一个关联缓存，如果在一个SQL中关联的表越多，
+   所占用的内存也就越大
+   如果程序中大量的使用了多表关联的操作，同时join_buffer_size设置的也不合理的情况下，就容易造成服务器内存溢出的情况，
+   就会影响到服务器数据库性能的稳定性
+   同时对于关联操作来说，会产生临时表操作，影响查询效率
+   Mysql最多允许关联61个表，建议不超过5个    </t>
+  </si>
+  <si>
+    <t>9.减少同数据库的交互次数 多个相同的操作合并在一起</t>
+  </si>
+  <si>
+    <t>10.对应同一列进行or判断时，使用in代替or</t>
+  </si>
+  <si>
+    <t>in的值不要超过500个，in 操作可以更有效的利用索引，or大多数情况下很少能利用到索引</t>
+  </si>
+  <si>
+    <t>11.禁止order by rand() 进行随机排序</t>
+  </si>
+  <si>
+    <t>12.where从句禁止对列进行函数转换和计算(导致无法使用相关列的索引)</t>
+  </si>
+  <si>
+    <t>13.不会有重复值时使用UNION ALL，而不是UNION</t>
+  </si>
+  <si>
+    <t>UNION 会把两个结果集的所有数据放到临时表中后再进行去重操作，UNION ALL 不会再对结果集进行去重操作</t>
+  </si>
+  <si>
+    <t>14.拆分大sql变为小sql</t>
+  </si>
+  <si>
+    <t>数据库操作行为规范</t>
+  </si>
+  <si>
+    <t>过大数据的（100万）批量写操作要分批多次操作</t>
+  </si>
+  <si>
+    <t>1.大批量操作可能会导致严重的主从延迟</t>
+  </si>
+  <si>
+    <t>2. binlog日志为row格式时会产生大量的日志</t>
+  </si>
+  <si>
+    <t>大批量写操作会产生大量日志，特别是对于row格式二进制数据而言，由于在row格式中会记录每一行数据的修改，我们一次修改的数据越多，
+   产生的日志量也就会越多，日志的传输和恢复所需要的时间也就越长，这也是造成主从延迟的一个原因</t>
+  </si>
+  <si>
+    <t>3. 避免产生大事务操作</t>
+  </si>
+  <si>
+    <t>4.对于大表的修改使用pt-online-schema-change</t>
+  </si>
+  <si>
+    <t>.原理： 会在原表的结构上建造一个新表 复制数据  2.避免延迟，修改时锁表</t>
+  </si>
+  <si>
+    <t>5.禁止super权限滥用</t>
+  </si>
+  <si>
+    <t>6.数据账号连接最小</t>
+  </si>
+  <si>
+    <t>执行计划分析</t>
   </si>
   <si>
     <t>《Dubbo 源码解析》</t>
@@ -2575,12 +3104,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2621,11 +3150,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2645,18 +3298,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2667,105 +3312,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2775,6 +3323,132 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,37 +3466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2834,25 +3478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,31 +3490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,61 +3514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,6 +3531,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2998,15 +3578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3018,6 +3589,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3039,35 +3625,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3079,10 +3639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3091,16 +3651,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3109,119 +3669,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3237,14 +3797,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -3252,7 +3869,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3614,7 +4234,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5555555555556" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.5555555555556" style="31" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.4444444444444" customWidth="1"/>
@@ -3622,7 +4242,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3630,7 +4250,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -3653,7 +4273,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3673,7 +4293,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -3690,7 +4310,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -3707,7 +4327,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3724,7 +4344,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
@@ -3741,7 +4361,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
@@ -3758,7 +4378,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3769,7 +4389,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
@@ -3783,7 +4403,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3800,7 +4420,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3817,7 +4437,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3834,7 +4454,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
@@ -3848,7 +4468,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3859,7 +4479,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="31" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
@@ -3873,7 +4493,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B17" t="s">
@@ -3890,7 +4510,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B18" t="s">
@@ -3904,7 +4524,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3918,7 +4538,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="31" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
@@ -3932,7 +4552,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="31" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="s">
@@ -3943,7 +4563,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B22" t="s">
@@ -3957,7 +4577,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="31" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3974,7 +4594,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="31" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3991,7 +4611,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B25" t="s">
@@ -4002,7 +4622,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4016,7 +4636,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B27" t="s">
@@ -4033,7 +4653,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="31" t="s">
         <v>118</v>
       </c>
       <c r="B28" t="s">
@@ -4078,18 +4698,18 @@
   <sheetPr/>
   <dimension ref="A1:B416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.4444444444444" style="7" customWidth="1"/>
+    <col min="1" max="1" width="32.4444444444444" style="10" customWidth="1"/>
     <col min="2" max="2" width="75.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="27" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4189,15 +4809,15 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="27" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4312,7 +4932,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B46" t="s">
@@ -4320,12 +4940,12 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4405,7 +5025,7 @@
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="10" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4430,7 +5050,7 @@
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="10" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4465,7 +5085,7 @@
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="10" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4495,7 +5115,7 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4545,7 +5165,7 @@
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4560,7 +5180,7 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="10" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4590,7 +5210,7 @@
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="10" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4640,12 +5260,12 @@
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="10" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4665,7 +5285,7 @@
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4705,7 +5325,7 @@
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="10" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4750,7 +5370,7 @@
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4830,12 +5450,12 @@
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="29" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="10" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4905,7 +5525,7 @@
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4955,7 +5575,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B177" t="s">
@@ -4963,12 +5583,12 @@
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="10" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4993,7 +5613,7 @@
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="10" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5048,7 +5668,7 @@
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="10" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5098,7 +5718,7 @@
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -5133,7 +5753,7 @@
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="10" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5193,7 +5813,7 @@
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="10" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5263,7 +5883,7 @@
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="10" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5288,7 +5908,7 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B244" t="s">
@@ -5296,7 +5916,7 @@
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5336,7 +5956,7 @@
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="7" t="s">
+      <c r="A254" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5366,7 +5986,7 @@
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="7" t="s">
+      <c r="A260" s="10" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5401,7 +6021,7 @@
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="7" t="s">
+      <c r="A267" s="10" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5431,7 +6051,7 @@
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="7" t="s">
+      <c r="A273" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5466,7 +6086,7 @@
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="7" t="s">
+      <c r="A280" s="10" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5486,7 +6106,7 @@
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="7" t="s">
+      <c r="A284" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5501,7 +6121,7 @@
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="7" t="s">
+      <c r="A287" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5521,7 +6141,7 @@
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="8" t="s">
+      <c r="A292" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5626,7 +6246,7 @@
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="7" t="s">
+      <c r="A313" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B313" t="s">
@@ -5634,7 +6254,7 @@
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="7" t="s">
+      <c r="A315" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5749,7 +6369,7 @@
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="7" t="s">
+      <c r="A338" s="10" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5819,7 +6439,7 @@
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="7" t="s">
+      <c r="A352" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B352" t="s">
@@ -5827,7 +6447,7 @@
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="8" t="s">
+      <c r="A354" s="27" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5897,7 +6517,7 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="7" t="s">
+      <c r="A368" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B368" t="s">
@@ -5905,7 +6525,7 @@
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="7" t="s">
+      <c r="A370" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6050,7 +6670,7 @@
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="7" t="s">
+      <c r="A399" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B399" t="s">
@@ -6058,22 +6678,22 @@
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="27" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="402" spans="2:2">
-      <c r="B402" t="s">
+      <c r="B402" s="30" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="403" spans="2:2">
-      <c r="B403" t="s">
+      <c r="B403" s="30" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="404" spans="2:2">
-      <c r="B404" t="s">
+      <c r="B404" s="30" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6133,10 +6753,10 @@
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="7" t="s">
+      <c r="A416" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B416" s="5" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6153,215 +6773,942 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A41"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="55.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="62.6666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.2222222222222" style="7" customWidth="1"/>
+    <col min="3" max="3" width="133.111111111111" style="8" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
     <row r="2" ht="17.4" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>511</v>
+      <c r="A2" s="10" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>512</v>
+      <c r="A3" s="10" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:1">
-      <c r="A4" s="7" t="s">
-        <v>513</v>
+      <c r="A4" s="10" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:1">
-      <c r="A5" s="7" t="s">
-        <v>514</v>
+      <c r="A5" s="10" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:1">
-      <c r="A6" s="7" t="s">
-        <v>515</v>
+      <c r="A6" s="10" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:1">
-      <c r="A7" s="7" t="s">
-        <v>516</v>
+      <c r="A7" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:1">
-      <c r="A8" s="7" t="s">
-        <v>517</v>
+      <c r="A8" s="10" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
-      <c r="A9" s="7" t="s">
-        <v>518</v>
+      <c r="A9" s="10" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="10" ht="17.4" spans="1:1">
-      <c r="A10" s="7" t="s">
-        <v>519</v>
+      <c r="A10" s="10" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>520</v>
+      <c r="A11" s="10" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="12" ht="17.4" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>521</v>
+      <c r="A12" s="10" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="13" ht="17.4" spans="1:1">
-      <c r="A13" s="7" t="s">
-        <v>522</v>
+      <c r="A13" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>523</v>
+      <c r="A14" s="10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="15" ht="17.4" spans="1:1">
-      <c r="A15" s="7" t="s">
-        <v>524</v>
+      <c r="A15" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="16" ht="17.4" spans="1:1">
-      <c r="A16" s="7" t="s">
-        <v>525</v>
+      <c r="A16" s="10" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="17" ht="17.4" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>526</v>
+      <c r="A17" s="10" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="18" ht="17.4" spans="1:1">
-      <c r="A18" s="7" t="s">
-        <v>527</v>
+      <c r="A18" s="10" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:1">
-      <c r="A19" s="7" t="s">
-        <v>528</v>
+      <c r="A19" s="10" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="20" ht="17.4" spans="1:1">
-      <c r="A20" s="7" t="s">
-        <v>529</v>
+      <c r="A20" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="21" ht="17.4" spans="1:1">
-      <c r="A21" s="7" t="s">
-        <v>530</v>
+      <c r="A21" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="22" ht="17.4" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>531</v>
+      <c r="A22" s="10" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="23" ht="17.4" spans="1:1">
-      <c r="A23" s="7" t="s">
-        <v>532</v>
+      <c r="A23" s="10" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="24" ht="17.4" spans="1:1">
-      <c r="A24" s="7" t="s">
-        <v>533</v>
+      <c r="A24" s="10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="25" ht="17.4" spans="1:1">
-      <c r="A25" s="7" t="s">
-        <v>534</v>
+      <c r="A25" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="26" ht="17.4" spans="1:1">
-      <c r="A26" s="7" t="s">
-        <v>535</v>
+      <c r="A26" s="10" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="27" ht="17.4" spans="1:1">
-      <c r="A27" s="7" t="s">
-        <v>536</v>
+      <c r="A27" s="10" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="28" ht="17.4" spans="1:1">
-      <c r="A28" s="7" t="s">
-        <v>537</v>
+      <c r="A28" s="10" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="29" ht="17.4" spans="1:1">
-      <c r="A29" s="7" t="s">
-        <v>538</v>
+      <c r="A29" s="10" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="30" ht="17.4" spans="1:1">
-      <c r="A30" s="7" t="s">
-        <v>539</v>
+      <c r="A30" s="10" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="31" ht="17.4" spans="1:1">
-      <c r="A31" s="7" t="s">
-        <v>540</v>
+      <c r="A31" s="10" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="32" ht="17.4" spans="1:1">
-      <c r="A32" s="7" t="s">
-        <v>541</v>
+      <c r="A32" s="10" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="33" ht="17.4" spans="1:1">
-      <c r="A33" s="7" t="s">
-        <v>542</v>
+      <c r="A33" s="10" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="34" ht="17.4" spans="1:1">
-      <c r="A34" s="7" t="s">
-        <v>543</v>
+      <c r="A34" s="10" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="35" ht="17.4" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>544</v>
+      <c r="A35" s="10" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="36" ht="17.4" spans="1:1">
-      <c r="A36" s="7" t="s">
-        <v>545</v>
+      <c r="A36" s="10" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="37" ht="17.4" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>546</v>
+      <c r="A37" s="10" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="38" ht="17.4" spans="1:1">
-      <c r="A38" s="7" t="s">
-        <v>547</v>
+      <c r="A38" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="39" ht="17.4" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>548</v>
+      <c r="A39" s="10" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="40" ht="17.4" spans="1:1">
-      <c r="A40" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="41" ht="17.4" spans="1:1">
-      <c r="A41" s="7" t="s">
-        <v>550</v>
+      <c r="A40" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="43" ht="17.4" spans="1:1">
+      <c r="A43" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="46" ht="28.8" spans="2:3">
+      <c r="B46" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="2:3">
+      <c r="B54" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="64" ht="15.6" spans="1:3">
+      <c r="A64" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="22" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="23" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="24" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="23" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="24" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="26" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="24" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="24" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="6" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -6377,7 +7724,7 @@
   <dimension ref="A3:B288"/>
   <sheetViews>
     <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293"/>
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -6388,928 +7735,928 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>551</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:2">
       <c r="B4" s="4" t="s">
-        <v>552</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>553</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>554</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="2:2">
       <c r="B7" s="4" t="s">
-        <v>555</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>556</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>557</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:2">
       <c r="B10" s="4" t="s">
-        <v>558</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>559</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="2:2">
       <c r="B12" s="4" t="s">
-        <v>560</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>561</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:2">
       <c r="B14" s="4" t="s">
-        <v>562</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>563</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="2:2">
       <c r="B16" s="4" t="s">
-        <v>564</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>565</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>566</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>567</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>568</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>569</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>570</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>571</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>572</v>
+        <v>741</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>573</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>574</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>575</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="2:2">
       <c r="B28" s="4" t="s">
-        <v>576</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>577</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="2:2">
       <c r="B30" s="4" t="s">
-        <v>578</v>
+        <v>747</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>579</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>580</v>
+        <v>749</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="2:2">
       <c r="B33" s="4" t="s">
-        <v>581</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>582</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="2:2">
       <c r="B35" s="4" t="s">
-        <v>583</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="2:2">
       <c r="B36" s="4" t="s">
-        <v>584</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="2:2">
       <c r="B37" s="4" t="s">
-        <v>585</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="2:2">
       <c r="B38" s="4" t="s">
-        <v>586</v>
+        <v>755</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="2:2">
       <c r="B39" s="4" t="s">
-        <v>587</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>588</v>
+        <v>757</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="2:2">
       <c r="B41" s="4" t="s">
-        <v>589</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>590</v>
+        <v>759</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>591</v>
+        <v>760</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>592</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>593</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" ht="15.6" spans="2:2">
       <c r="B46" s="4" t="s">
-        <v>594</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47" ht="15.6" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>595</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>596</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" ht="15.6" spans="2:2">
       <c r="B49" s="4" t="s">
-        <v>597</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" ht="15.6" spans="2:2">
       <c r="B50" s="4" t="s">
-        <v>598</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" ht="15.6" spans="2:2">
       <c r="B51" s="4" t="s">
-        <v>599</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" ht="15.6" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>600</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" ht="15.6" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>601</v>
+        <v>770</v>
       </c>
     </row>
     <row r="54" ht="15.6" spans="2:2">
       <c r="B54" s="4" t="s">
-        <v>602</v>
+        <v>771</v>
       </c>
     </row>
     <row r="55" ht="15.6" spans="2:2">
       <c r="B55" s="4" t="s">
-        <v>603</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" ht="15.6" spans="2:2">
       <c r="B56" s="4" t="s">
-        <v>604</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="2:2">
       <c r="B57" s="4" t="s">
-        <v>605</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>606</v>
+        <v>775</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="2:2">
       <c r="B59" s="4" t="s">
-        <v>607</v>
+        <v>776</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="2:2">
       <c r="B60" s="4" t="s">
-        <v>608</v>
+        <v>777</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="2:2">
       <c r="B61" s="4" t="s">
-        <v>609</v>
+        <v>778</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="2:2">
       <c r="B62" s="4" t="s">
-        <v>610</v>
+        <v>779</v>
       </c>
     </row>
     <row r="63" ht="15.6" spans="2:2">
       <c r="B63" s="4" t="s">
-        <v>611</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>612</v>
+        <v>781</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="2:2">
       <c r="B65" s="4" t="s">
-        <v>613</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" ht="15.6" spans="2:2">
       <c r="B66" s="4" t="s">
-        <v>614</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="2:2">
       <c r="B67" s="4" t="s">
-        <v>615</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" ht="15.6" spans="2:2">
       <c r="B68" s="4" t="s">
-        <v>616</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" ht="15.6" spans="2:2">
       <c r="B69" s="4" t="s">
-        <v>617</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="2:2">
       <c r="B70" s="4" t="s">
-        <v>618</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="2:2">
       <c r="B71" s="4" t="s">
-        <v>619</v>
+        <v>788</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="2:2">
       <c r="B72" s="4" t="s">
-        <v>620</v>
+        <v>789</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="2:2">
       <c r="B73" s="4" t="s">
-        <v>621</v>
+        <v>790</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="2:2">
       <c r="B74" s="4" t="s">
-        <v>622</v>
+        <v>791</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="2:2">
       <c r="B75" s="4" t="s">
-        <v>623</v>
+        <v>792</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>624</v>
+        <v>793</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>625</v>
+        <v>794</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>626</v>
+        <v>795</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>627</v>
+        <v>796</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>628</v>
+        <v>797</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>629</v>
+        <v>798</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>630</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>631</v>
+        <v>800</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>632</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>633</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>634</v>
+        <v>803</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>635</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>636</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>637</v>
+        <v>806</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>638</v>
+        <v>807</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>639</v>
+        <v>808</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>640</v>
+        <v>809</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>641</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>642</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>643</v>
+        <v>812</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>644</v>
+        <v>813</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>645</v>
+        <v>814</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>646</v>
+        <v>815</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>647</v>
+        <v>816</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>648</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>649</v>
+        <v>818</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>650</v>
+        <v>819</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>651</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>652</v>
+        <v>821</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>653</v>
+        <v>822</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>654</v>
+        <v>823</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>655</v>
+        <v>824</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>656</v>
+        <v>825</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>657</v>
+        <v>826</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>658</v>
+        <v>827</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>659</v>
+        <v>828</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>660</v>
+        <v>829</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>661</v>
+        <v>830</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>662</v>
+        <v>831</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>663</v>
+        <v>832</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>664</v>
+        <v>833</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>665</v>
+        <v>834</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>666</v>
+        <v>835</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>667</v>
+        <v>836</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>668</v>
+        <v>837</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>669</v>
+        <v>838</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>670</v>
+        <v>839</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>671</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>672</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>673</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>674</v>
+        <v>843</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>675</v>
+        <v>844</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>676</v>
+        <v>845</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>677</v>
+        <v>846</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>678</v>
+        <v>847</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>679</v>
+        <v>848</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>680</v>
+        <v>849</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>681</v>
+        <v>850</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>682</v>
+        <v>851</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>683</v>
+        <v>852</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>684</v>
+        <v>853</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>685</v>
+        <v>854</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>686</v>
+        <v>855</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>687</v>
+      <c r="B140" s="5" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>688</v>
+        <v>857</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>689</v>
+        <v>858</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>690</v>
+        <v>859</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>691</v>
+        <v>860</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>692</v>
+        <v>861</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>693</v>
+        <v>862</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>694</v>
+        <v>863</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>695</v>
+        <v>864</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>696</v>
+        <v>865</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>697</v>
+        <v>866</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>699</v>
+        <v>868</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>700</v>
+        <v>869</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>701</v>
+        <v>870</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>702</v>
+        <v>871</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>703</v>
+        <v>872</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>705</v>
+        <v>874</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>706</v>
+        <v>875</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>707</v>
+        <v>876</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>708</v>
+        <v>877</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>709</v>
+        <v>878</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>710</v>
+        <v>879</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>711</v>
+        <v>880</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>712</v>
+        <v>881</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>713</v>
+        <v>882</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>714</v>
+        <v>883</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>715</v>
+        <v>884</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>716</v>
+        <v>885</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>717</v>
+        <v>886</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>718</v>
+        <v>887</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>719</v>
+        <v>888</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>720</v>
+        <v>889</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>721</v>
+        <v>890</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>722</v>
+        <v>891</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>723</v>
+        <v>892</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>724</v>
+        <v>893</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>725</v>
+        <v>894</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>726</v>
+        <v>895</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>727</v>
+        <v>896</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>728</v>
+        <v>897</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>729</v>
+        <v>898</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>730</v>
+        <v>899</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>731</v>
+        <v>900</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>732</v>
+        <v>901</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>733</v>
+        <v>902</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>734</v>
+        <v>903</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -7317,122 +8664,122 @@
         <v>145</v>
       </c>
       <c r="B189" t="s">
-        <v>735</v>
+        <v>904</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="3" t="s">
-        <v>736</v>
+        <v>905</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>737</v>
+        <v>906</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>738</v>
+        <v>907</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>739</v>
+        <v>908</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>740</v>
+        <v>909</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>741</v>
+        <v>910</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>742</v>
+        <v>911</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>743</v>
+        <v>912</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>744</v>
+        <v>913</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>745</v>
+        <v>914</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>746</v>
+        <v>915</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>747</v>
+        <v>916</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>748</v>
+        <v>917</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>749</v>
+        <v>918</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>750</v>
+        <v>919</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>751</v>
+        <v>920</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>752</v>
+        <v>921</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>753</v>
+        <v>922</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>754</v>
+        <v>923</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>755</v>
+        <v>924</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>756</v>
+        <v>925</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>757</v>
+        <v>926</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>758</v>
+        <v>927</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -7440,92 +8787,92 @@
         <v>145</v>
       </c>
       <c r="B214" t="s">
-        <v>759</v>
+        <v>928</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="3" t="s">
-        <v>760</v>
+        <v>929</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>761</v>
+        <v>930</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>762</v>
+        <v>931</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>763</v>
+        <v>932</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>764</v>
+        <v>933</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>765</v>
+        <v>934</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>766</v>
+        <v>935</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>767</v>
+        <v>936</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>768</v>
+        <v>937</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>769</v>
+        <v>938</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>770</v>
+        <v>939</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>771</v>
+        <v>940</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>772</v>
+        <v>941</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>773</v>
+        <v>942</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>774</v>
+        <v>943</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>775</v>
+        <v>944</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>776</v>
+        <v>945</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -7533,172 +8880,172 @@
         <v>145</v>
       </c>
       <c r="B233" t="s">
-        <v>777</v>
+        <v>946</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>778</v>
+        <v>947</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>779</v>
+        <v>948</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>780</v>
+        <v>949</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>781</v>
+        <v>950</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>782</v>
+        <v>951</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>783</v>
+        <v>952</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>784</v>
+        <v>953</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>785</v>
+        <v>954</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>786</v>
+        <v>955</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>787</v>
+        <v>956</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>788</v>
+        <v>957</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>789</v>
+        <v>958</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>790</v>
+        <v>959</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>791</v>
+        <v>960</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>792</v>
+        <v>961</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>793</v>
+        <v>962</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>794</v>
+        <v>963</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>795</v>
+        <v>964</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>796</v>
+        <v>965</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>797</v>
+        <v>966</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>798</v>
+        <v>967</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>799</v>
+        <v>968</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>800</v>
+        <v>969</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>801</v>
+        <v>970</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>802</v>
+        <v>971</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>803</v>
+        <v>972</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>804</v>
+        <v>973</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>805</v>
+        <v>974</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>806</v>
+        <v>975</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>807</v>
+        <v>976</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>808</v>
+        <v>977</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>809</v>
+        <v>978</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>810</v>
+        <v>979</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -7706,37 +9053,37 @@
         <v>145</v>
       </c>
       <c r="B268" t="s">
-        <v>811</v>
+        <v>980</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="3" t="s">
-        <v>812</v>
+        <v>981</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>813</v>
+        <v>982</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>814</v>
+        <v>983</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>815</v>
+        <v>984</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>816</v>
+        <v>985</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>817</v>
+        <v>986</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -7744,65 +9091,65 @@
         <v>145</v>
       </c>
       <c r="B276" t="s">
-        <v>818</v>
+        <v>987</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="3" t="s">
-        <v>819</v>
+        <v>988</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>820</v>
+        <v>989</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>821</v>
+        <v>990</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>822</v>
+        <v>991</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>823</v>
+        <v>992</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>824</v>
+        <v>993</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>825</v>
+        <v>994</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>826</v>
+        <v>995</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>827</v>
+        <v>996</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>828</v>
+        <v>997</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>829</v>
+      <c r="B288" s="5" t="s">
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -7832,100 +9179,100 @@
   <sheetData>
     <row r="2" ht="18" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>830</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>831</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>832</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>833</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>834</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>835</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>836</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>837</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>838</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>839</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>840</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>841</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>842</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>843</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>844</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>845</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>846</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>847</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>848</v>
+        <v>1017</v>
       </c>
       <c r="B20" t="s">
-        <v>849</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>

--- a/知识列表.xlsx
+++ b/知识列表.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
-    <sheet name="面试题" sheetId="2" r:id="rId2"/>
-    <sheet name="精尽学习提纲" sheetId="3" r:id="rId3"/>
-    <sheet name="源码学习提纲" sheetId="4" r:id="rId4"/>
-    <sheet name="数据库设计" sheetId="5" r:id="rId5"/>
+    <sheet name="J2EE" sheetId="5" r:id="rId2"/>
+    <sheet name="分布式" sheetId="8" r:id="rId3"/>
+    <sheet name="面试题" sheetId="2" r:id="rId4"/>
+    <sheet name="数据库与缓存" sheetId="3" r:id="rId5"/>
+    <sheet name="容器化" sheetId="6" r:id="rId6"/>
+    <sheet name="源码学习提纲" sheetId="4" r:id="rId7"/>
+    <sheet name="前端" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1036">
   <si>
     <t>工具</t>
   </si>
@@ -395,6 +398,9 @@
     <t>绿色：已完成学习输出</t>
   </si>
   <si>
+    <t>SpringMVC</t>
+  </si>
+  <si>
     <t>java基础</t>
   </si>
   <si>
@@ -1560,123 +1566,6 @@
   </si>
   <si>
     <t>说明</t>
-  </si>
-  <si>
-    <t>精尽 Netty 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Dubbo 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Spring 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Spring MVC 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Spring Boot 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Spring Cloud 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 MyBatis 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Hibernate 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 RocketMQ 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 RabbitMQ 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Shiro 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Kafka 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Redis 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Elasticsearch 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 MongoDB 学习指南</t>
-  </si>
-  <si>
-    <t>精尽设计模式学习指南</t>
-  </si>
-  <si>
-    <t>精尽数据结构与算法学习指南</t>
-  </si>
-  <si>
-    <t>精尽计算机网络学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Linux 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Git 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Maven 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Jenkins 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 IntelliJ IDEA 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Java【基础】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Java【并发】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Java【虚拟机】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Zookeeper 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Nginx 学习指南</t>
-  </si>
-  <si>
-    <t>精尽任务调度学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Docker 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Kubernetes 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 React 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Vue 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Angular 学习指南</t>
-  </si>
-  <si>
-    <t>精尽【项目实战】学习指南</t>
-  </si>
-  <si>
-    <t>精尽【大数据】学习指南</t>
-  </si>
-  <si>
-    <t>精尽【前端】学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Go 学习指南</t>
-  </si>
-  <si>
-    <t>精尽 Python 学习指南</t>
   </si>
   <si>
     <t>精尽 MySQL 学习指南</t>
@@ -2202,6 +2091,228 @@
     <t>执行计划分析</t>
   </si>
   <si>
+    <t>数据库实体设计</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.1）之商品信息</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.2）之商品详情</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.3）之商品分组</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 商品（1.4）之商品快照</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.1）之订单信息</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.2）之物流信息（快递发货）</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.3）之物流信息（上门自提）</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.4）之物流信息（同城配送）</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.5）之退款维权</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 交易（2.6）之购物车</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 公用（3.1）之地区信息</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.1）之优惠劵&amp;&amp;优惠码</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.2）之限制折扣</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.3）之赠品</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.4）之满减送</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.5）之优惠套餐</t>
+  </si>
+  <si>
+    <t>数据库实体设计 —— 营销（4.6）之打包一口价</t>
+  </si>
+  <si>
+    <t>参考:</t>
+  </si>
+  <si>
+    <t>http://svip.iocoder.cn/categories/%E6%95%B0%E6%8D%AE%E5%BA%93%E5%AE%9E%E4%BD%93%E8%AE%BE%E8%AE%A1/</t>
+  </si>
+  <si>
+    <t>精尽 Redis 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 MongoDB 学习指南</t>
+  </si>
+  <si>
+    <t>精尽 Docker 学习指南</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 01 - Docker 简介》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 02 - Docker 安装(CentOS7/Ubuntu/macOS/Windows)》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 03 - 配置镜像加速器》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 04 - Docker 镜像常用命令》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 05 - 容器常用命令》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 06 - 实战：修改 Nginx 首页》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 07 - Dockerfile 指令详解》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 08 - Dockerfile 实战》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 09 - 使用 Docker Hub 管理镜像》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 10 - 使用 Docker Registry 管理镜像》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 11 - 使用 Nexus 管理 Docker 镜像》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 12 - 使用 Maven 插件构建 Docker 镜像》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 13 - Docker 可视化管理工具》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 14 - Docker 数据持久化》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 15 - Docker 容器网络》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 16 - network 命令》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 17 - 默认 bridge 网络中配置 DNS》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 18 - 用户定义网络中的内嵌 DNS 服务器》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 19 - Docker Compose 简介》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 20 - 安装 Docker Compose》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 21 - Docker Compose 快速入门》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 22 - docker-compose.yml 常用命令》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 23 - docker-compose 常用命令》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 24 - Docker Compose网络设置》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 25 - 练习：使用 Docker Compose 编排 WordPress 博客》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 26 - Docker Compose 控制服务启动顺序》</t>
+  </si>
+  <si>
+    <t>《Docker 系列教程 27 - 在生产环境中使用 Docker Compose》</t>
+  </si>
+  <si>
+    <t>http://www.iocoder.cn/Docker/good-collection/</t>
+  </si>
+  <si>
+    <t>精尽 Kubernetes 学习指南</t>
+  </si>
+  <si>
+    <t>01：Kubernetes介绍</t>
+  </si>
+  <si>
+    <t>02：集群搭建</t>
+  </si>
+  <si>
+    <t>03：API介绍</t>
+  </si>
+  <si>
+    <t>04：Label与Annotation</t>
+  </si>
+  <si>
+    <t>05：Namespaces</t>
+  </si>
+  <si>
+    <t>06：Pod</t>
+  </si>
+  <si>
+    <t>07：Pod控制器</t>
+  </si>
+  <si>
+    <t>08：Services</t>
+  </si>
+  <si>
+    <t>09：健康检查</t>
+  </si>
+  <si>
+    <t>10：数据与存储</t>
+  </si>
+  <si>
+    <t>11：调度</t>
+  </si>
+  <si>
+    <t>12: 日常维护</t>
+  </si>
+  <si>
+    <t>13：网络方案介绍</t>
+  </si>
+  <si>
+    <t>14：应用自动弹性伸缩</t>
+  </si>
+  <si>
+    <t>15：Kubernetes负载均衡</t>
+  </si>
+  <si>
+    <t>16：Kubernetes安全</t>
+  </si>
+  <si>
+    <t>17：包管理工具Helm</t>
+  </si>
+  <si>
+    <t>18：生产环境部署</t>
+  </si>
+  <si>
+    <t>19：Kubernetes监控告警</t>
+  </si>
+  <si>
+    <t>20：镜像管理工具</t>
+  </si>
+  <si>
+    <t>21：日志收集和分析工具</t>
+  </si>
+  <si>
+    <t>22：持久化存储解决方案</t>
+  </si>
+  <si>
     <t>《Dubbo 源码解析》</t>
   </si>
   <si>
@@ -2667,10 +2778,10 @@
     <t>【死磕 Spring】—— IoC 之开启 Bean 的加载</t>
   </si>
   <si>
-    <t>【死磕 Spring】—— ﻿IoC 之加载 Bean：从单例缓存中获取单例 Bean</t>
-  </si>
-  <si>
-    <t>【死磕 Spring】—— ﻿IoC 之加载 Bean：parentBeanFactory 与依赖处理</t>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：从单例缓存中获取单例 Bean</t>
+  </si>
+  <si>
+    <t>【死磕 Spring】—— IoC 之加载 Bean：parentBeanFactory 与依赖处理</t>
   </si>
   <si>
     <t>【死磕 Spring】—— IoC 之加载 Bean：分析各 scope 的 Bean 创建</t>
@@ -3039,64 +3150,7 @@
     <t>http://svip.iocoder.cn/categories/JDK/</t>
   </si>
   <si>
-    <t>数据库实体设计</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 商品（1.1）之商品信息</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 商品（1.2）之商品详情</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 商品（1.3）之商品分组</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 商品（1.4）之商品快照</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 交易（2.1）之订单信息</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 交易（2.2）之物流信息（快递发货）</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 交易（2.3）之物流信息（上门自提）</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 交易（2.4）之物流信息（同城配送）</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 交易（2.5）之退款维权</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 交易（2.6）之购物车</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 公用（3.1）之地区信息</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 营销（4.1）之优惠劵&amp;&amp;优惠码</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 营销（4.2）之限制折扣</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 营销（4.3）之赠品</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 营销（4.4）之满减送</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 营销（4.5）之优惠套餐</t>
-  </si>
-  <si>
-    <t>数据库实体设计 —— 营销（4.6）之打包一口价</t>
-  </si>
-  <si>
-    <t>参考:</t>
-  </si>
-  <si>
-    <t>http://svip.iocoder.cn/categories/%E6%95%B0%E6%8D%AE%E5%BA%93%E5%AE%9E%E4%BD%93%E8%AE%BE%E8%AE%A1/</t>
+    <t>精尽 React 学习指南</t>
   </si>
 </sst>
 </file>
@@ -3112,6 +3166,14 @@
   <fonts count="27">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3142,14 +3204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FF444444"/>
       <name val="微软雅黑"/>
@@ -3177,100 +3231,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3297,6 +3262,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -3310,6 +3310,60 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3340,13 +3394,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3358,13 +3442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,91 +3454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3478,19 +3484,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3502,7 +3520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3514,13 +3532,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3534,22 +3588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3559,21 +3608,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3589,21 +3623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3631,6 +3650,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3639,10 +3693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3651,156 +3705,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3809,13 +3863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3830,10 +3878,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3852,9 +3897,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3863,7 +3905,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3875,7 +3917,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4229,12 +4274,12 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5555555555556" style="31" customWidth="1"/>
+    <col min="1" max="1" width="22.5555555555556" style="28" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.4444444444444" customWidth="1"/>
@@ -4242,7 +4287,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4250,7 +4295,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -4273,13 +4318,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -4293,7 +4338,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -4310,7 +4355,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -4319,7 +4364,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
@@ -4327,16 +4372,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
@@ -4344,7 +4389,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
@@ -4353,7 +4398,7 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E7" t="s">
@@ -4361,7 +4406,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
@@ -4378,10 +4423,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
@@ -4389,47 +4434,47 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E12" t="s">
@@ -4437,10 +4482,10 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
@@ -4454,7 +4499,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
@@ -4468,10 +4513,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C15" t="s">
@@ -4479,7 +4524,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="28" t="s">
         <v>68</v>
       </c>
       <c r="B16" t="s">
@@ -4493,7 +4538,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B17" t="s">
@@ -4502,7 +4547,7 @@
       <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E17" t="s">
@@ -4510,7 +4555,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B18" t="s">
@@ -4524,13 +4569,13 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="23" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -4538,7 +4583,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
@@ -4552,18 +4597,18 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B22" t="s">
@@ -4577,13 +4622,13 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="23" t="s">
         <v>98</v>
       </c>
       <c r="D23" t="s">
@@ -4594,16 +4639,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E24" t="s">
@@ -4611,7 +4656,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B25" t="s">
@@ -4622,10 +4667,10 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C26" t="s">
@@ -4636,7 +4681,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="28" t="s">
         <v>113</v>
       </c>
       <c r="B27" t="s">
@@ -4653,7 +4698,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="28" t="s">
         <v>118</v>
       </c>
       <c r="B28" t="s">
@@ -4696,1273 +4741,1358 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.8888888888889" style="27" customWidth="1"/>
+    <col min="2" max="2" width="101.555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1" spans="1:1">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:1">
+      <c r="A9" s="27"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:1">
+      <c r="A10" s="27"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:1">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:1">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:1">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:1">
+      <c r="A14" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B416"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" workbookViewId="0">
+    <sheetView topLeftCell="A338" workbookViewId="0">
       <selection activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.4444444444444" style="10" customWidth="1"/>
+    <col min="1" max="1" width="32.4444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
-        <v>125</v>
+      <c r="A1" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="B21" s="24" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="27" t="s">
-        <v>147</v>
+      <c r="A23" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
-        <v>145</v>
+      <c r="A46" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
-        <v>171</v>
+      <c r="A49" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="10" t="s">
-        <v>187</v>
+      <c r="A65" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="10" t="s">
-        <v>192</v>
+      <c r="A70" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="10" t="s">
-        <v>199</v>
+      <c r="A77" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="10" t="s">
-        <v>205</v>
+      <c r="A83" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="10" t="s">
-        <v>215</v>
+      <c r="A93" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="10" t="s">
-        <v>218</v>
+      <c r="A96" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="10" t="s">
-        <v>224</v>
+      <c r="A102" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="27" t="s">
-        <v>234</v>
+      <c r="A113" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="10" t="s">
-        <v>235</v>
+      <c r="A114" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="10" t="s">
-        <v>239</v>
+      <c r="A118" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="10" t="s">
-        <v>247</v>
+      <c r="A126" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="10" t="s">
-        <v>256</v>
+      <c r="A135" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="10" t="s">
-        <v>272</v>
+      <c r="A153" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="10" t="s">
-        <v>286</v>
+      <c r="A167" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="10" t="s">
-        <v>145</v>
+      <c r="A177" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B177" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="10" t="s">
-        <v>297</v>
+      <c r="A180" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="10" t="s">
-        <v>302</v>
+      <c r="A185" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="10" t="s">
-        <v>313</v>
+      <c r="A196" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="10" t="s">
-        <v>323</v>
+      <c r="A206" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="10" t="s">
-        <v>330</v>
+      <c r="A213" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="10" t="s">
-        <v>342</v>
+      <c r="A225" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="10" t="s">
-        <v>356</v>
+      <c r="A239" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="10" t="s">
-        <v>145</v>
+      <c r="A244" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B244" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="27" t="s">
+      <c r="A246" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="10" t="s">
+      <c r="A254" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="256" spans="2:2">
@@ -5972,92 +6102,92 @@
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="10" t="s">
-        <v>373</v>
+      <c r="A260" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="10" t="s">
-        <v>380</v>
+      <c r="A267" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="10" t="s">
+      <c r="A273" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="2:2">
@@ -6067,32 +6197,32 @@
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="10" t="s">
-        <v>391</v>
+      <c r="A280" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="282" spans="2:2">
@@ -6106,7 +6236,7 @@
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="10" t="s">
+      <c r="A284" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6121,7 +6251,7 @@
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="10" t="s">
+      <c r="A287" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6132,7 +6262,7 @@
     </row>
     <row r="289" spans="2:2">
       <c r="B289" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="290" spans="2:2">
@@ -6141,623 +6271,623 @@
       </c>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="27" t="s">
+      <c r="A292" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="10" t="s">
-        <v>145</v>
+      <c r="A313" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B313" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="10" t="s">
+      <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="320" spans="2:2">
       <c r="B320" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="337" spans="2:2">
       <c r="B337" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="10" t="s">
-        <v>436</v>
+      <c r="A338" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="339" spans="2:2">
       <c r="B339" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="342" spans="2:2">
       <c r="B342" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="344" spans="2:2">
       <c r="B344" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="346" spans="2:2">
       <c r="B346" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="10" t="s">
-        <v>145</v>
+      <c r="A352" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B352" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="27" t="s">
-        <v>451</v>
+      <c r="A354" s="6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="355" spans="2:2">
       <c r="B355" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="2:2">
       <c r="B356" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="357" spans="2:2">
       <c r="B357" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="359" spans="2:2">
       <c r="B359" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="360" spans="2:2">
       <c r="B360" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="361" spans="2:2">
       <c r="B361" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="362" spans="2:2">
       <c r="B362" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="363" spans="2:2">
       <c r="B363" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="364" spans="2:2">
       <c r="B364" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="366" spans="2:2">
       <c r="B366" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="10" t="s">
-        <v>145</v>
+      <c r="A368" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B368" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="10" t="s">
+      <c r="A370" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="371" spans="2:2">
       <c r="B371" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" spans="2:2">
       <c r="B372" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" spans="2:2">
       <c r="B373" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="376" spans="2:2">
       <c r="B376" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" spans="2:2">
       <c r="B377" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" spans="2:2">
       <c r="B378" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="379" spans="2:2">
       <c r="B379" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" spans="2:2">
       <c r="B380" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" spans="2:2">
       <c r="B382" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" spans="2:2">
       <c r="B383" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="384" spans="2:2">
       <c r="B384" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="2:2">
       <c r="B385" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" spans="2:2">
       <c r="B386" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="388" spans="2:2">
       <c r="B388" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="2:2">
       <c r="B389" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="390" spans="2:2">
       <c r="B390" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="391" spans="2:2">
       <c r="B391" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="392" spans="2:2">
       <c r="B392" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="394" spans="2:2">
       <c r="B394" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="396" spans="2:2">
       <c r="B396" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="397" spans="2:2">
       <c r="B397" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" spans="2:2">
       <c r="B398" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="10" t="s">
-        <v>145</v>
+      <c r="A399" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B399" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="27" t="s">
-        <v>495</v>
+      <c r="A401" s="6" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="402" spans="2:2">
-      <c r="B402" s="30" t="s">
-        <v>496</v>
+      <c r="B402" s="26" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="403" spans="2:2">
-      <c r="B403" s="30" t="s">
-        <v>497</v>
+      <c r="B403" s="26" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="404" spans="2:2">
-      <c r="B404" s="30" t="s">
-        <v>498</v>
+      <c r="B404" s="26" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="406" spans="2:2">
       <c r="B406" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="407" spans="2:2">
       <c r="B407" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="408" spans="2:2">
       <c r="B408" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="409" spans="2:2">
       <c r="B409" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="410" spans="2:2">
       <c r="B410" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="411" spans="2:2">
       <c r="B411" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="412" spans="2:2">
       <c r="B412" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="413" spans="2:2">
       <c r="B413" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="414" spans="2:2">
       <c r="B414" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="415" spans="2:2">
       <c r="B415" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="10" t="s">
-        <v>145</v>
+      <c r="A416" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -6770,946 +6900,868 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="62.6666666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" width="62.6666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="60.2222222222222" style="7" customWidth="1"/>
     <col min="3" max="3" width="133.111111111111" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>512</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>513</v>
+      </c>
       <c r="C1" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2" ht="17.4" spans="1:1">
-      <c r="A2" s="10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="4" ht="17.4" spans="1:1">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="5" ht="17.4" spans="1:1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" s="7" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="6" ht="17.4" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="7" ht="17.4" spans="1:1">
-      <c r="A7" s="10" t="s">
+    <row r="6" ht="28.8" spans="2:3">
+      <c r="B6" s="7" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="8" ht="17.4" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="9" ht="17.4" spans="1:1">
-      <c r="A9" s="10" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="7" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="10" ht="17.4" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="11" ht="17.4" spans="1:1">
-      <c r="A11" s="10" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="12" ht="17.4" spans="1:1">
-      <c r="A12" s="10" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="13" ht="17.4" spans="1:1">
-      <c r="A13" s="10" t="s">
+    <row r="10" spans="2:3">
+      <c r="B10" s="7" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="14" ht="17.4" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="15" ht="17.4" spans="1:1">
-      <c r="A15" s="10" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="7" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="16" ht="17.4" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="17" ht="17.4" spans="1:1">
-      <c r="A17" s="10" t="s">
+    <row r="12" spans="3:3">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="18" ht="17.4" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="19" ht="17.4" spans="1:1">
-      <c r="A19" s="10" t="s">
+    <row r="14" ht="28.8" spans="2:3">
+      <c r="B14" s="7" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="20" ht="17.4" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="21" ht="17.4" spans="1:1">
-      <c r="A21" s="10" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" s="7" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="22" ht="17.4" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="23" ht="17.4" spans="1:1">
-      <c r="A23" s="10" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="24" ht="17.4" spans="1:1">
-      <c r="A24" s="10" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="7" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="25" ht="17.4" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="26" ht="17.4" spans="1:1">
-      <c r="A26" s="10" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="13" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="27" ht="17.4" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="28" ht="17.4" spans="1:1">
-      <c r="A28" s="10" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="7" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="29" ht="17.4" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="30" ht="17.4" spans="1:1">
-      <c r="A30" s="10" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="7" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="31" ht="17.4" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="32" ht="17.4" spans="1:1">
-      <c r="A32" s="10" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="7" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="33" ht="17.4" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="34" ht="17.4" spans="1:1">
-      <c r="A34" s="10" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="14" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="35" ht="17.4" spans="1:1">
-      <c r="A35" s="10" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="13" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="36" ht="17.4" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="C23" s="15" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="37" ht="17.4" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="D23" s="16" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="38" ht="17.4" spans="1:1">
-      <c r="A38" s="10" t="s">
+    <row r="24" ht="15.6" spans="1:3">
+      <c r="A24" s="17" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="39" ht="17.4" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="C24" s="18" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="40" ht="17.4" spans="1:1">
-      <c r="A40" s="10" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="7" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="43" ht="17.4" spans="1:1">
-      <c r="A43" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" s="7" t="s">
         <v>554</v>
       </c>
+      <c r="C26" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="17" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46" ht="28.8" spans="2:3">
-      <c r="B46" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>558</v>
+      <c r="B45" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="17" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="7" t="s">
-        <v>561</v>
+      <c r="B47" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="19" t="s">
+        <v>593</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>564</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="17" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:3">
+        <v>597</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="54" ht="28.8" spans="2:3">
-      <c r="B54" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>570</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>581</v>
+      <c r="B55" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="17" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="17" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="64" ht="15.6" spans="1:3">
-      <c r="A64" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>593</v>
+      <c r="B61" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="21" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="17" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
+        <v>619</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>601</v>
+        <v>623</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>603</v>
+        <v>625</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
+        <v>627</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>614</v>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>616</v>
+      <c r="B78" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>618</v>
+      <c r="B79" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>620</v>
+      <c r="B80" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="20" t="s">
-        <v>622</v>
+      <c r="A81" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>624</v>
+      <c r="B83" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>626</v>
+      <c r="B84" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="20" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="20" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="6" t="s">
-        <v>639</v>
+      <c r="B85" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="20" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="7" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>641</v>
+      <c r="B94" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="22" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="23" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>652</v>
+      <c r="B95" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="20" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="7" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="24" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="25" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="23" t="s">
-        <v>656</v>
+      <c r="B104" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="7" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="7" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="7" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="7" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="23" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="7" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="23" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="23" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="C122" s="14" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="7" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C123" s="8" t="s">
+    </row>
+    <row r="127" customFormat="1" ht="18" customHeight="1" spans="1:1">
+      <c r="A127" s="23" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="7" t="s">
+    <row r="128" customFormat="1" spans="2:2">
+      <c r="B128" t="s">
         <v>683</v>
       </c>
-      <c r="C124" s="8" t="s">
+    </row>
+    <row r="129" customFormat="1" spans="2:2">
+      <c r="B129" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="7" t="s">
+    <row r="130" customFormat="1" spans="2:2">
+      <c r="B130" t="s">
         <v>685</v>
       </c>
-      <c r="C125" s="8" t="s">
+    </row>
+    <row r="131" customFormat="1" spans="2:2">
+      <c r="B131" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="7" t="s">
+    <row r="132" customFormat="1" spans="2:2">
+      <c r="B132" t="s">
         <v>687</v>
       </c>
-      <c r="C126" s="8" t="s">
+    </row>
+    <row r="133" customFormat="1" spans="2:2">
+      <c r="B133" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="23" t="s">
+    <row r="134" customFormat="1" spans="2:2">
+      <c r="B134" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="7" t="s">
+    <row r="135" customFormat="1" spans="2:2">
+      <c r="B135" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="24" t="s">
+    <row r="136" customFormat="1" spans="2:2">
+      <c r="B136" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="7" t="s">
+    <row r="137" customFormat="1" spans="2:2">
+      <c r="B137" t="s">
         <v>692</v>
       </c>
-      <c r="C130" s="18" t="s">
+    </row>
+    <row r="138" customFormat="1" spans="2:2">
+      <c r="B138" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="26" t="s">
+    <row r="139" customFormat="1" spans="2:2">
+      <c r="B139" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="24" t="s">
+    <row r="140" customFormat="1" spans="2:2">
+      <c r="B140" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="7" t="s">
+    <row r="141" customFormat="1" spans="2:2">
+      <c r="B141" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="7" t="s">
+    <row r="142" customFormat="1" spans="2:2">
+      <c r="B142" t="s">
         <v>697</v>
       </c>
-      <c r="C134" s="8" t="s">
+    </row>
+    <row r="143" customFormat="1" spans="2:2">
+      <c r="B143" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="7" t="s">
+    <row r="144" customFormat="1" spans="2:2">
+      <c r="B144" t="s">
         <v>699</v>
       </c>
-      <c r="C135" s="18" t="s">
+    </row>
+    <row r="145" customFormat="1" spans="1:2">
+      <c r="A145" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="7" t="s">
+      <c r="B145" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="7" t="s">
+    <row r="149" ht="17.4" spans="1:1">
+      <c r="A149" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="C137" s="8" t="s">
+    </row>
+    <row r="150" ht="17.4" spans="1:1">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" ht="17.4" spans="1:1">
+      <c r="A151" s="6" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="7" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="24" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="23" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="7" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="7" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="7" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="6" t="s">
-        <v>719</v>
-      </c>
+    <row r="152" ht="17.4" spans="1:1">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" ht="17.4" spans="1:1">
+      <c r="A153" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7718,13 +7770,298 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="37.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="81.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="42.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="17.4" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="16" ht="17.4" spans="2:2">
+      <c r="B16" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" ht="17.4" spans="1:1">
+      <c r="A32" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>755</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:B288"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B265" sqref="B265"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -7735,1421 +8072,1421 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="2:2">
       <c r="B4" s="4" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="2:2">
       <c r="B5" s="4" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="2:2">
       <c r="B6" s="4" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="2:2">
       <c r="B7" s="4" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="2:2">
       <c r="B8" s="4" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:2">
       <c r="B10" s="4" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>728</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="2:2">
       <c r="B12" s="4" t="s">
-        <v>729</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="2:2">
       <c r="B13" s="4" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:2">
       <c r="B14" s="4" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="2:2">
       <c r="B15" s="4" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="2:2">
       <c r="B16" s="4" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="2:2">
       <c r="B28" s="4" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="2:2">
       <c r="B30" s="4" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="2:2">
       <c r="B33" s="4" t="s">
-        <v>750</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="2:2">
       <c r="B35" s="4" t="s">
-        <v>752</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="2:2">
       <c r="B36" s="4" t="s">
-        <v>753</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="2:2">
       <c r="B37" s="4" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="2:2">
       <c r="B38" s="4" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="2:2">
       <c r="B39" s="4" t="s">
-        <v>756</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="2:2">
       <c r="B41" s="4" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>761</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>762</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" ht="15.6" spans="2:2">
       <c r="B46" s="4" t="s">
-        <v>763</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47" ht="15.6" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
     </row>
     <row r="49" ht="15.6" spans="2:2">
       <c r="B49" s="4" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
     </row>
     <row r="50" ht="15.6" spans="2:2">
       <c r="B50" s="4" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51" ht="15.6" spans="2:2">
       <c r="B51" s="4" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
     </row>
     <row r="52" ht="15.6" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>769</v>
+        <v>805</v>
       </c>
     </row>
     <row r="53" ht="15.6" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" ht="15.6" spans="2:2">
       <c r="B54" s="4" t="s">
-        <v>771</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" ht="15.6" spans="2:2">
       <c r="B55" s="4" t="s">
-        <v>772</v>
+        <v>808</v>
       </c>
     </row>
     <row r="56" ht="15.6" spans="2:2">
       <c r="B56" s="4" t="s">
-        <v>773</v>
+        <v>809</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="2:2">
       <c r="B57" s="4" t="s">
-        <v>774</v>
+        <v>810</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>775</v>
+        <v>811</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="2:2">
       <c r="B59" s="4" t="s">
-        <v>776</v>
+        <v>812</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="2:2">
       <c r="B60" s="4" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="2:2">
       <c r="B61" s="4" t="s">
-        <v>778</v>
+        <v>814</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="2:2">
       <c r="B62" s="4" t="s">
-        <v>779</v>
+        <v>815</v>
       </c>
     </row>
     <row r="63" ht="15.6" spans="2:2">
       <c r="B63" s="4" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>781</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="2:2">
       <c r="B65" s="4" t="s">
-        <v>782</v>
+        <v>818</v>
       </c>
     </row>
     <row r="66" ht="15.6" spans="2:2">
       <c r="B66" s="4" t="s">
-        <v>783</v>
+        <v>819</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="2:2">
       <c r="B67" s="4" t="s">
-        <v>784</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" ht="15.6" spans="2:2">
       <c r="B68" s="4" t="s">
-        <v>785</v>
+        <v>821</v>
       </c>
     </row>
     <row r="69" ht="15.6" spans="2:2">
       <c r="B69" s="4" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="2:2">
       <c r="B70" s="4" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="2:2">
       <c r="B71" s="4" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="2:2">
       <c r="B72" s="4" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="2:2">
       <c r="B73" s="4" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="2:2">
       <c r="B74" s="4" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="2:2">
       <c r="B75" s="4" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>801</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>812</v>
+        <v>848</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>813</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>814</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>815</v>
+        <v>851</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>816</v>
+        <v>852</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>820</v>
+        <v>856</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>823</v>
+        <v>859</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>824</v>
+        <v>860</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>826</v>
+        <v>862</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>828</v>
+        <v>864</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>833</v>
+        <v>869</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>836</v>
+        <v>872</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>837</v>
+        <v>873</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>839</v>
+        <v>875</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>840</v>
+        <v>876</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>857</v>
+        <v>893</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>858</v>
+        <v>894</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>859</v>
+        <v>895</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>860</v>
+        <v>896</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>863</v>
+        <v>899</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>864</v>
+        <v>900</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>865</v>
+        <v>901</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>867</v>
+        <v>903</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>868</v>
+        <v>904</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>869</v>
+        <v>905</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>870</v>
+        <v>906</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>871</v>
+        <v>907</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>872</v>
+        <v>908</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>873</v>
+        <v>909</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>875</v>
+        <v>911</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>876</v>
+        <v>912</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>877</v>
+        <v>913</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>878</v>
+        <v>914</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>880</v>
+        <v>916</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>881</v>
+        <v>917</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>882</v>
+        <v>918</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>883</v>
+        <v>919</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>884</v>
+        <v>920</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>885</v>
+        <v>921</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>886</v>
+        <v>922</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>887</v>
+        <v>923</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>888</v>
+        <v>924</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>889</v>
+        <v>925</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>890</v>
+        <v>926</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>891</v>
+        <v>927</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>892</v>
+        <v>928</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>893</v>
+        <v>929</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>895</v>
+        <v>931</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>896</v>
+        <v>932</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>897</v>
+        <v>933</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>898</v>
+        <v>934</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>899</v>
+        <v>935</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>900</v>
+        <v>936</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>901</v>
+        <v>937</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>902</v>
+        <v>938</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>903</v>
+        <v>939</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B189" t="s">
-        <v>904</v>
+        <v>940</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="3" t="s">
-        <v>905</v>
+        <v>941</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>907</v>
+        <v>943</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>908</v>
+        <v>944</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>910</v>
+        <v>946</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>911</v>
+        <v>947</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>912</v>
+        <v>948</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>913</v>
+        <v>949</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>914</v>
+        <v>950</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>915</v>
+        <v>951</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>916</v>
+        <v>952</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>917</v>
+        <v>953</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>918</v>
+        <v>954</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>919</v>
+        <v>955</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>920</v>
+        <v>956</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>921</v>
+        <v>957</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>923</v>
+        <v>959</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>924</v>
+        <v>960</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>925</v>
+        <v>961</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>926</v>
+        <v>962</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>927</v>
+        <v>963</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B214" t="s">
-        <v>928</v>
+        <v>964</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="3" t="s">
-        <v>929</v>
+        <v>965</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>930</v>
+        <v>966</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>931</v>
+        <v>967</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>932</v>
+        <v>968</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>934</v>
+        <v>970</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>935</v>
+        <v>971</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>937</v>
+        <v>973</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>938</v>
+        <v>974</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>939</v>
+        <v>975</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>940</v>
+        <v>976</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>941</v>
+        <v>977</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>942</v>
+        <v>978</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>944</v>
+        <v>980</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B233" t="s">
-        <v>946</v>
+        <v>982</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>947</v>
+        <v>983</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>948</v>
+        <v>984</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>949</v>
+        <v>985</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>950</v>
+        <v>986</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>951</v>
+        <v>987</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>952</v>
+        <v>988</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>953</v>
+        <v>989</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>954</v>
+        <v>990</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>955</v>
+        <v>991</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>956</v>
+        <v>992</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>957</v>
+        <v>993</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>958</v>
+        <v>994</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>959</v>
+        <v>995</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>960</v>
+        <v>996</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>961</v>
+        <v>997</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>962</v>
+        <v>998</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>963</v>
+        <v>999</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>964</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>965</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>966</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>967</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>968</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>969</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>970</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>971</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>972</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>973</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>974</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>975</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>976</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>977</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" t="s">
-        <v>978</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>979</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B268" t="s">
-        <v>980</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="3" t="s">
-        <v>981</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" t="s">
-        <v>982</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" t="s">
-        <v>983</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>984</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>985</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>986</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B276" t="s">
-        <v>987</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="3" t="s">
-        <v>988</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>989</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>990</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>991</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>992</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>993</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>994</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>995</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>996</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>997</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>998</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -9162,117 +9499,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B20"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="101.555555555556" customWidth="1"/>
+    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18" customHeight="1" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1018</v>
+    <row r="1" ht="17.4" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/知识列表.xlsx
+++ b/知识列表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangxiaowei/git/note/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148927F9-4C06-5E47-A29F-0AD80296ABC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -3156,14 +3162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3176,6 +3176,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3184,6 +3185,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3192,6 +3194,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3200,19 +3203,22 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF444444"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3220,6 +3226,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3227,147 +3234,19 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3388,198 +3267,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3587,251 +3280,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3851,7 +3305,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3924,61 +3378,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4265,28 +3676,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.5555555555556" style="28" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4317,7 +3728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
@@ -4337,7 +3748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
@@ -4354,7 +3765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
@@ -4371,7 +3782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="28" t="s">
         <v>25</v>
       </c>
@@ -4388,7 +3799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
@@ -4405,7 +3816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="28" t="s">
         <v>35</v>
       </c>
@@ -4422,7 +3833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9" s="28" t="s">
         <v>40</v>
       </c>
@@ -4433,7 +3844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="28" t="s">
         <v>43</v>
       </c>
@@ -4447,7 +3858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="28" t="s">
         <v>46</v>
       </c>
@@ -4464,7 +3875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="28" t="s">
         <v>51</v>
       </c>
@@ -4481,7 +3892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="28" t="s">
         <v>56</v>
       </c>
@@ -4498,7 +3909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="28" t="s">
         <v>61</v>
       </c>
@@ -4512,7 +3923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="A15" s="28" t="s">
         <v>65</v>
       </c>
@@ -4523,7 +3934,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="28" t="s">
         <v>68</v>
       </c>
@@ -4554,7 +3965,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="28" t="s">
         <v>77</v>
       </c>
@@ -4568,7 +3979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="28" t="s">
         <v>81</v>
       </c>
@@ -4582,7 +3993,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="28" t="s">
         <v>85</v>
       </c>
@@ -4596,7 +4007,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="28" t="s">
         <v>89</v>
       </c>
@@ -4607,7 +4018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="28" t="s">
         <v>92</v>
       </c>
@@ -4655,7 +4066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25" s="28" t="s">
         <v>106</v>
       </c>
@@ -4666,7 +4077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="28" t="s">
         <v>109</v>
       </c>
@@ -4697,7 +4108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="28" t="s">
         <v>118</v>
       </c>
@@ -4708,12 +4119,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="1:5">
       <c r="E30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>122</v>
       </c>
@@ -4728,29 +4139,28 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" ht="14.4" spans="1:1">
+    <row r="63" spans="1:1" ht="14">
       <c r="A63"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.8888888888889" style="27" customWidth="1"/>
-    <col min="2" max="2" width="101.555555555556" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="101.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4758,182 +4168,161 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:1">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:1">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1" spans="1:1">
-      <c r="A7" s="27"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:1">
+    <row r="5" spans="1:1">
+      <c r="A5"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6"/>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:1">
-      <c r="A9" s="27"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:1">
-      <c r="A10" s="27"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:1">
-      <c r="A11" s="27"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:1">
-      <c r="A12" s="27"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:1">
-      <c r="A13" s="27"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:1">
-      <c r="A14" s="27"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView topLeftCell="A338" workbookViewId="0">
       <selection activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>145</v>
       </c>
@@ -4946,117 +4335,117 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
       <c r="B30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
       <c r="B33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
       <c r="B34" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
       <c r="B35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
       <c r="B39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2">
       <c r="B40" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2">
       <c r="B41" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:2">
       <c r="B42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:2">
       <c r="B43" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2">
       <c r="B44" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:2">
       <c r="B45" t="s">
         <v>170</v>
       </c>
@@ -5069,637 +4458,637 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2">
       <c r="B50" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="1:2">
       <c r="B51" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2">
       <c r="B52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2">
       <c r="B53" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2">
       <c r="B54" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2">
       <c r="B55" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2">
       <c r="B56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2">
       <c r="B57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2">
       <c r="B58" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2">
       <c r="B59" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2">
       <c r="B60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2">
       <c r="B61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2">
       <c r="B62" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2">
       <c r="B63" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:2">
       <c r="B64" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2">
       <c r="B66" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2">
       <c r="B67" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2">
       <c r="B68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:2">
       <c r="B69" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:2">
       <c r="B71" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2">
       <c r="B72" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="1:2">
       <c r="B73" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:2">
       <c r="B74" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:2">
       <c r="B75" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2">
       <c r="B76" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:2">
       <c r="B78" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2">
       <c r="B79" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2">
       <c r="B80" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:2">
       <c r="B81" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:2">
       <c r="B82" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:2">
       <c r="B84" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:2">
       <c r="B85" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:2">
       <c r="B86" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:2">
       <c r="B87" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:2">
       <c r="B88" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:2">
       <c r="B89" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:2">
       <c r="B90" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:2">
       <c r="B91" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:2">
       <c r="B92" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:2">
       <c r="B94" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:2">
       <c r="B95" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:2">
       <c r="B97" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="1:2">
       <c r="B98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:2">
       <c r="B99" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2">
       <c r="B100" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2">
       <c r="B101" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:2">
       <c r="B103" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:2">
       <c r="B104" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2">
       <c r="B105" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2">
       <c r="B106" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:2">
       <c r="B107" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:2">
       <c r="B108" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:2">
       <c r="B109" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:2">
       <c r="B110" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2">
       <c r="B111" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:2">
       <c r="B115" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:2">
       <c r="B116" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:2">
       <c r="B117" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="1:2">
       <c r="B119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:2">
       <c r="B120" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2">
       <c r="B121" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:2">
       <c r="B122" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="1:2">
       <c r="B123" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:2">
       <c r="B124" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="1:2">
       <c r="B125" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2">
       <c r="B127" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:2">
       <c r="B128" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:2">
       <c r="B129" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:2">
       <c r="B130" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:2">
       <c r="B131" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:2">
       <c r="B132" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:2">
       <c r="B133" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:2">
       <c r="B134" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="1:2">
       <c r="B136" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="1:2">
       <c r="B137" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:2">
       <c r="B138" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:2">
       <c r="B139" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:2">
       <c r="B140" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="1:2">
       <c r="B141" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="1:2">
       <c r="B142" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:2">
       <c r="B143" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:2">
       <c r="B144" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2">
       <c r="B145" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:2">
       <c r="B146" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="1:2">
       <c r="B147" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="1:2">
       <c r="B148" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="1:2">
       <c r="B149" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="1:2">
       <c r="B150" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2">
       <c r="A152" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="1:2">
       <c r="B154" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:2">
       <c r="B155" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="1:2">
       <c r="B156" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="1:2">
       <c r="B157" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="1:2">
       <c r="B158" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="1:2">
       <c r="B159" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="1:2">
       <c r="B160" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="1:2">
       <c r="B161" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="1:2">
       <c r="B162" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="1:2">
       <c r="B163" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="1:2">
       <c r="B164" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:2">
       <c r="B165" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="1:2">
       <c r="B166" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="1:2">
       <c r="B168" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="1:2">
       <c r="B169" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="1:2">
       <c r="B170" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="1:2">
       <c r="B171" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="1:2">
       <c r="B172" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="1:2">
       <c r="B173" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="1:2">
       <c r="B174" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="1:2">
       <c r="B175" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:2">
       <c r="B176" t="s">
         <v>296</v>
       </c>
@@ -5712,327 +5101,327 @@
         <v>297</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:2">
       <c r="A179" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="1:2">
       <c r="B181" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2">
       <c r="B182" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="1:2">
       <c r="B183" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="1:2">
       <c r="B184" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="1:2">
       <c r="B186" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:2">
       <c r="B187" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:2">
       <c r="B188" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="1:2">
       <c r="B189" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="1:2">
       <c r="B190" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="1:2">
       <c r="B191" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:2">
       <c r="B192" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="1:2">
       <c r="B193" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="1:2">
       <c r="B194" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="1:2">
       <c r="B195" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="1:2">
       <c r="B197" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="1:2">
       <c r="B198" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="1:2">
       <c r="B199" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="1:2">
       <c r="B200" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="1:2">
       <c r="B201" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="1:2">
       <c r="B202" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="1:2">
       <c r="B203" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="1:2">
       <c r="B204" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="1:2">
       <c r="B205" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="1:2">
       <c r="B207" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="1:2">
       <c r="B208" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="1:2">
       <c r="B209" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="1:2">
       <c r="B210" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="1:2">
       <c r="B211" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="1:2">
       <c r="B212" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="1:2">
       <c r="B214" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="1:2">
       <c r="B215" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="1:2">
       <c r="B216" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="1:2">
       <c r="B217" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="1:2">
       <c r="B218" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="1:2">
       <c r="B219" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="1:2">
       <c r="B220" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="1:2">
       <c r="B221" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="1:2">
       <c r="B222" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="1:2">
       <c r="B223" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="1:2">
       <c r="B224" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="1:2">
       <c r="B226" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="1:2">
       <c r="B227" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="1:2">
       <c r="B228" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="1:2">
       <c r="B229" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="1:2">
       <c r="B230" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="1:2">
       <c r="B231" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="1:2">
       <c r="B232" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="1:2">
       <c r="B233" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="1:2">
       <c r="B234" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="1:2">
       <c r="B235" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="1:2">
       <c r="B236" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="1:2">
       <c r="B237" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="1:2">
       <c r="B238" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="1:2">
       <c r="B240" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="1:2">
       <c r="B241" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="1:2">
       <c r="B242" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="1:2">
       <c r="B243" t="s">
         <v>361</v>
       </c>
@@ -6045,332 +5434,332 @@
         <v>362</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:2">
       <c r="A246" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="1:2">
       <c r="B247" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="1:2">
       <c r="B248" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="1:2">
       <c r="B249" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="1:2">
       <c r="B250" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="1:2">
       <c r="B251" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="1:2">
       <c r="B252" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="1:2">
       <c r="B253" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="1:2">
       <c r="B255" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="1:2">
       <c r="B256" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="1:2">
       <c r="B257" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="1:2">
       <c r="B258" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="1:2">
       <c r="B259" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="1:2">
       <c r="B261" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="1:2">
       <c r="B262" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="1:2">
       <c r="B263" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="1:2">
       <c r="B264" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="1:2">
       <c r="B265" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="1:2">
       <c r="B266" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="1:2">
       <c r="B268" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="1:2">
       <c r="B269" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="1:2">
       <c r="B270" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="1:2">
       <c r="B271" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="1:2">
       <c r="B272" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="1:2">
       <c r="B274" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="1:2">
       <c r="B275" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="1:2">
       <c r="B276" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="1:2">
       <c r="B277" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="1:2">
       <c r="B278" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="1:2">
       <c r="B279" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="1:2">
       <c r="B281" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="1:2">
       <c r="B282" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="1:2">
       <c r="B283" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="1:2">
       <c r="B285" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="1:2">
       <c r="B286" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="1:2">
       <c r="B288" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="1:2">
       <c r="B289" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="1:2">
       <c r="B290" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:2">
       <c r="A292" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="1:2">
       <c r="B293" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="1:2">
       <c r="B294" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="1:2">
       <c r="B295" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="1:2">
       <c r="B296" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="1:2">
       <c r="B297" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="1:2">
       <c r="B298" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="1:2">
       <c r="B299" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="1:2">
       <c r="B300" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="1:2">
       <c r="B301" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="1:2">
       <c r="B302" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="1:2">
       <c r="B303" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="1:2">
       <c r="B304" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="1:2">
       <c r="B305" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="1:2">
       <c r="B306" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="1:2">
       <c r="B307" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="1:2">
       <c r="B308" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="1:2">
       <c r="B309" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="1:2">
       <c r="B310" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="1:2">
       <c r="B311" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="1:2">
       <c r="B312" t="s">
         <v>414</v>
       </c>
@@ -6383,32 +5772,32 @@
         <v>415</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="1:2">
       <c r="B316" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="1:2">
       <c r="B317" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="1:2">
       <c r="B318" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="1:2">
       <c r="B319" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="1:2">
       <c r="B320" t="s">
         <v>420</v>
       </c>
@@ -6493,77 +5882,77 @@
         <v>436</v>
       </c>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="1:2">
       <c r="B337" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="1:2">
       <c r="B339" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="1:2">
       <c r="B340" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="1:2">
       <c r="B341" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="1:2">
       <c r="B342" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="1:2">
       <c r="B343" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="1:2">
       <c r="B344" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="1:2">
       <c r="B345" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="1:2">
       <c r="B346" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="1:2">
       <c r="B347" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="1:2">
       <c r="B348" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="1:2">
       <c r="B349" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="1:2">
       <c r="B350" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="1:2">
       <c r="B351" t="s">
         <v>450</v>
       </c>
@@ -6576,72 +5965,72 @@
         <v>451</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:2">
       <c r="A354" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="1:2">
       <c r="B355" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="1:2">
       <c r="B356" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="1:2">
       <c r="B357" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="1:2">
       <c r="B358" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="1:2">
       <c r="B359" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="1:2">
       <c r="B360" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="1:2">
       <c r="B361" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="1:2">
       <c r="B362" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="1:2">
       <c r="B363" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="1:2">
       <c r="B364" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="1:2">
       <c r="B365" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="1:2">
       <c r="B366" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="1:2">
       <c r="B367" t="s">
         <v>465</v>
       </c>
@@ -6654,147 +6043,147 @@
         <v>466</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="1:2">
       <c r="B371" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="1:2">
       <c r="B372" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="1:2">
       <c r="B373" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="1:2">
       <c r="B374" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="1:2">
       <c r="B375" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="1:2">
       <c r="B376" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="1:2">
       <c r="B377" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="1:2">
       <c r="B378" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="1:2">
       <c r="B379" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="1:2">
       <c r="B380" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="1:2">
       <c r="B381" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="1:2">
       <c r="B382" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="1:2">
       <c r="B383" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="1:2">
       <c r="B384" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="1:2">
       <c r="B385" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="1:2">
       <c r="B386" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="1:2">
       <c r="B387" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="1:2">
       <c r="B388" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="1:2">
       <c r="B389" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="1:2">
       <c r="B390" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="1:2">
       <c r="B391" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="1:2">
       <c r="B392" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="1:2">
       <c r="B393" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="1:2">
       <c r="B394" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="1:2">
       <c r="B395" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="1:2">
       <c r="B396" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="1:2">
       <c r="B397" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="1:2">
       <c r="B398" t="s">
         <v>494</v>
       </c>
@@ -6807,77 +6196,77 @@
         <v>495</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:2">
       <c r="A401" s="6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="1:2">
       <c r="B402" s="26" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="1:2">
       <c r="B403" s="26" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="1:2">
       <c r="B404" s="26" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="1:2">
       <c r="B405" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="1:2">
       <c r="B406" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="1:2">
       <c r="B407" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="1:2">
       <c r="B408" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="1:2">
       <c r="B409" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="1:2">
       <c r="B410" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="1:2">
       <c r="B411" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="1:2">
       <c r="B412" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="1:2">
       <c r="B413" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="1:2">
       <c r="B414" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="1:2">
       <c r="B415" t="s">
         <v>510</v>
       </c>
@@ -6891,29 +6280,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B416" r:id="rId1" display="http://svip.iocoder.cn/distributed-transaction/Interview/"/>
+    <hyperlink ref="B416" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="62.6666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.2222222222222" style="7" customWidth="1"/>
-    <col min="3" max="3" width="133.111111111111" style="8" customWidth="1"/>
+    <col min="1" max="1" width="62.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="133.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6927,17 +6315,17 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:1">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="9" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
       <c r="B5" s="7" t="s">
         <v>517</v>
       </c>
@@ -6945,7 +6333,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="2:3">
+    <row r="6" spans="1:3" ht="30">
       <c r="B6" s="7" t="s">
         <v>519</v>
       </c>
@@ -6953,7 +6341,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3" ht="16">
       <c r="B7" s="7" t="s">
         <v>521</v>
       </c>
@@ -6961,17 +6349,17 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3">
       <c r="B8" s="7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:3" ht="16">
       <c r="B10" s="7" t="s">
         <v>525</v>
       </c>
@@ -6979,7 +6367,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3" ht="16">
       <c r="B11" s="7" t="s">
         <v>527</v>
       </c>
@@ -6987,7 +6375,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3" ht="16">
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3">
@@ -6998,7 +6386,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="2:3">
+    <row r="14" spans="1:3" ht="30">
       <c r="B14" s="7" t="s">
         <v>531</v>
       </c>
@@ -7006,7 +6394,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:3">
       <c r="B15" s="7" t="s">
         <v>533</v>
       </c>
@@ -7014,12 +6402,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:3">
       <c r="B16" s="7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:4">
       <c r="B17" s="7" t="s">
         <v>536</v>
       </c>
@@ -7027,7 +6415,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:4">
       <c r="B18" s="13" t="s">
         <v>538</v>
       </c>
@@ -7035,7 +6423,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4">
       <c r="B19" s="7" t="s">
         <v>540</v>
       </c>
@@ -7043,7 +6431,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:4">
       <c r="B20" s="7" t="s">
         <v>542</v>
       </c>
@@ -7051,7 +6439,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4" ht="15">
       <c r="B21" s="7" t="s">
         <v>544</v>
       </c>
@@ -7059,12 +6447,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="14" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
       <c r="B23" s="13" t="s">
         <v>547</v>
       </c>
@@ -7075,7 +6463,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:3">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="17" t="s">
         <v>550</v>
       </c>
@@ -7083,7 +6471,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:4">
       <c r="B25" s="7" t="s">
         <v>552</v>
       </c>
@@ -7091,7 +6479,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4">
       <c r="B26" s="7" t="s">
         <v>554</v>
       </c>
@@ -7099,7 +6487,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4">
       <c r="B27" s="7" t="s">
         <v>556</v>
       </c>
@@ -7107,7 +6495,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="17" t="s">
         <v>558</v>
       </c>
@@ -7115,7 +6503,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:4" ht="16">
       <c r="B29" s="7" t="s">
         <v>560</v>
       </c>
@@ -7123,7 +6511,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:4" ht="16">
       <c r="B30" s="7" t="s">
         <v>562</v>
       </c>
@@ -7131,7 +6519,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:4">
       <c r="B31" s="7" t="s">
         <v>564</v>
       </c>
@@ -7139,7 +6527,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:4" ht="16">
       <c r="B32" s="7" t="s">
         <v>566</v>
       </c>
@@ -7155,7 +6543,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
       <c r="B34" s="7" t="s">
         <v>570</v>
       </c>
@@ -7163,7 +6551,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
       <c r="B35" s="7" t="s">
         <v>572</v>
       </c>
@@ -7171,12 +6559,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3" ht="16">
       <c r="B37" s="19" t="s">
         <v>575</v>
       </c>
@@ -7184,7 +6572,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:3" ht="16">
       <c r="B38" s="19" t="s">
         <v>577</v>
       </c>
@@ -7192,7 +6580,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:3" ht="16">
       <c r="B39" s="19" t="s">
         <v>579</v>
       </c>
@@ -7200,7 +6588,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3" ht="16">
       <c r="B40" s="19" t="s">
         <v>581</v>
       </c>
@@ -7208,17 +6596,17 @@
         <v>582</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" s="17" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="1:3" ht="16">
       <c r="B43" s="19" t="s">
         <v>585</v>
       </c>
@@ -7226,7 +6614,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="1:3" ht="16">
       <c r="B44" s="19" t="s">
         <v>587</v>
       </c>
@@ -7234,7 +6622,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3" ht="16">
       <c r="B45" s="19" t="s">
         <v>589</v>
       </c>
@@ -7242,12 +6630,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46" s="17" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="1:3" ht="16">
       <c r="B47" s="19" t="s">
         <v>585</v>
       </c>
@@ -7255,7 +6643,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:3" ht="16">
       <c r="B48" s="19" t="s">
         <v>593</v>
       </c>
@@ -7263,17 +6651,17 @@
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" s="17" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="1:3" ht="16">
       <c r="B51" s="7" t="s">
         <v>597</v>
       </c>
@@ -7281,7 +6669,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="1:3" ht="16">
       <c r="B52" s="19" t="s">
         <v>599</v>
       </c>
@@ -7289,12 +6677,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="1:3" ht="16">
       <c r="B54" s="19" t="s">
         <v>602</v>
       </c>
@@ -7302,7 +6690,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="1:3" ht="16">
       <c r="B55" s="19" t="s">
         <v>604</v>
       </c>
@@ -7310,7 +6698,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="1:3" ht="16">
       <c r="B56" s="19" t="s">
         <v>606</v>
       </c>
@@ -7318,22 +6706,22 @@
         <v>607</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:3" ht="16">
       <c r="B57" s="19" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:3">
       <c r="A60" s="17" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="1:3">
       <c r="B61" s="20" t="s">
         <v>611</v>
       </c>
@@ -7341,7 +6729,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="1:3">
       <c r="B62" s="7" t="s">
         <v>613</v>
       </c>
@@ -7349,27 +6737,27 @@
         <v>614</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:3">
       <c r="B63" s="7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:3">
       <c r="B64" s="20" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:3">
       <c r="B65" s="21" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3">
       <c r="A66" s="17" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="1:3">
       <c r="B67" s="7" t="s">
         <v>619</v>
       </c>
@@ -7377,17 +6765,17 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:3">
       <c r="B68" s="7" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:3">
       <c r="B69" s="7" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="1:3">
       <c r="B70" s="7" t="s">
         <v>623</v>
       </c>
@@ -7395,7 +6783,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="1:3">
       <c r="B71" s="7" t="s">
         <v>625</v>
       </c>
@@ -7403,7 +6791,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="1:3">
       <c r="B72" s="7" t="s">
         <v>627</v>
       </c>
@@ -7411,32 +6799,32 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:3">
       <c r="A73" s="17" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:3">
       <c r="B74" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:3">
       <c r="B75" s="7" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:3">
       <c r="B76" s="7" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:3">
       <c r="A77" s="17" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="1:3">
       <c r="B78" s="7" t="s">
         <v>634</v>
       </c>
@@ -7444,7 +6832,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="1:3">
       <c r="B79" s="7" t="s">
         <v>636</v>
       </c>
@@ -7452,7 +6840,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="1:3">
       <c r="B80" s="7" t="s">
         <v>638</v>
       </c>
@@ -7460,12 +6848,12 @@
         <v>639</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:3">
       <c r="A81" s="17" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="1:3">
       <c r="B82" s="7" t="s">
         <v>641</v>
       </c>
@@ -7473,7 +6861,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="1:3">
       <c r="B83" s="7" t="s">
         <v>643</v>
       </c>
@@ -7481,7 +6869,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="1:3">
       <c r="B84" s="7" t="s">
         <v>645</v>
       </c>
@@ -7489,7 +6877,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="1:3">
       <c r="B85" s="7" t="s">
         <v>647</v>
       </c>
@@ -7497,7 +6885,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="1:3">
       <c r="B86" s="7" t="s">
         <v>649</v>
       </c>
@@ -7505,22 +6893,22 @@
         <v>650</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:3">
       <c r="A87" s="17" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:3">
       <c r="B88" s="7" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:3">
       <c r="B89" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="1:3">
       <c r="B90" s="7" t="s">
         <v>654</v>
       </c>
@@ -7528,22 +6916,22 @@
         <v>655</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3">
       <c r="B91" s="22" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3">
       <c r="B92" s="20" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="1:3">
       <c r="B93" s="7" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="1:3">
       <c r="B94" s="7" t="s">
         <v>659</v>
       </c>
@@ -7551,7 +6939,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="1:3">
       <c r="B95" s="7" t="s">
         <v>661</v>
       </c>
@@ -7559,12 +6947,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:3">
       <c r="B96" s="7" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="1:3">
       <c r="B97" s="7" t="s">
         <v>664</v>
       </c>
@@ -7572,17 +6960,17 @@
         <v>665</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="1:3">
       <c r="B98" s="7" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:3">
       <c r="B99" s="20" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="1:3">
       <c r="B100" s="7" t="s">
         <v>668</v>
       </c>
@@ -7590,27 +6978,27 @@
         <v>669</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:3">
       <c r="B101" s="7" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3">
       <c r="A102" s="17" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:3">
       <c r="B103" s="7" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:3">
       <c r="B104" s="7" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="1:3">
       <c r="B105" s="7" t="s">
         <v>674</v>
       </c>
@@ -7618,12 +7006,12 @@
         <v>675</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:3">
       <c r="B106" s="7" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="1:3">
       <c r="B107" s="7" t="s">
         <v>677</v>
       </c>
@@ -7631,112 +7019,112 @@
         <v>678</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:3">
       <c r="B108" s="7" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:3">
       <c r="B109" s="7" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="127" customFormat="1" ht="18" customHeight="1" spans="1:1">
+    <row r="127" spans="1:2" customFormat="1" ht="18" customHeight="1">
       <c r="A127" s="23" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="128" customFormat="1" spans="2:2">
+    <row r="128" spans="1:2" customFormat="1">
       <c r="B128" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="129" customFormat="1" spans="2:2">
+    <row r="129" spans="2:2" customFormat="1">
       <c r="B129" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="130" customFormat="1" spans="2:2">
+    <row r="130" spans="2:2" customFormat="1">
       <c r="B130" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="131" customFormat="1" spans="2:2">
+    <row r="131" spans="2:2" customFormat="1">
       <c r="B131" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="132" customFormat="1" spans="2:2">
+    <row r="132" spans="2:2" customFormat="1">
       <c r="B132" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="133" customFormat="1" spans="2:2">
+    <row r="133" spans="2:2" customFormat="1">
       <c r="B133" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="134" customFormat="1" spans="2:2">
+    <row r="134" spans="2:2" customFormat="1">
       <c r="B134" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="135" customFormat="1" spans="2:2">
+    <row r="135" spans="2:2" customFormat="1">
       <c r="B135" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="136" customFormat="1" spans="2:2">
+    <row r="136" spans="2:2" customFormat="1">
       <c r="B136" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="137" customFormat="1" spans="2:2">
+    <row r="137" spans="2:2" customFormat="1">
       <c r="B137" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="138" customFormat="1" spans="2:2">
+    <row r="138" spans="2:2" customFormat="1">
       <c r="B138" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="139" customFormat="1" spans="2:2">
+    <row r="139" spans="2:2" customFormat="1">
       <c r="B139" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="140" customFormat="1" spans="2:2">
+    <row r="140" spans="2:2" customFormat="1">
       <c r="B140" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="141" customFormat="1" spans="2:2">
+    <row r="141" spans="2:2" customFormat="1">
       <c r="B141" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="142" customFormat="1" spans="2:2">
+    <row r="142" spans="2:2" customFormat="1">
       <c r="B142" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="143" customFormat="1" spans="2:2">
+    <row r="143" spans="2:2" customFormat="1">
       <c r="B143" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="144" customFormat="1" spans="2:2">
+    <row r="144" spans="2:2" customFormat="1">
       <c r="B144" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="145" customFormat="1" spans="1:2">
+    <row r="145" spans="1:2" customFormat="1">
       <c r="A145" t="s">
         <v>700</v>
       </c>
@@ -7744,184 +7132,180 @@
         <v>701</v>
       </c>
     </row>
-    <row r="149" ht="17.4" spans="1:1">
-      <c r="A149" s="6" t="s">
+    <row r="148" spans="1:2" ht="17">
+      <c r="A148" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="17">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="152" spans="1:2" ht="17">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" ht="17">
+      <c r="A153" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="150" ht="17.4" spans="1:1">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" ht="17.4" spans="1:1">
-      <c r="A151" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="152" ht="17.4" spans="1:1">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" ht="17.4" spans="1:1">
-      <c r="A153" s="1"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="81.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="42.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:1">
+    <row r="2" spans="1:2" ht="17">
       <c r="A2" s="6" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="16" ht="17.4" spans="2:2">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>731</v>
       </c>
@@ -7934,7 +7318,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" ht="17.4" spans="1:1">
+    <row r="32" spans="1:2" ht="17">
       <c r="A32" s="6" t="s">
         <v>733</v>
       </c>
@@ -8050,387 +7434,386 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:B288"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="92.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="2:2">
+    <row r="4" spans="1:2" ht="15">
       <c r="B4" s="4" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="2:2">
+    <row r="5" spans="1:2" ht="15">
       <c r="B5" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="2:2">
+    <row r="6" spans="1:2" ht="15">
       <c r="B6" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="2:2">
+    <row r="7" spans="1:2" ht="15">
       <c r="B7" s="4" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="2:2">
+    <row r="8" spans="1:2" ht="15">
       <c r="B8" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="2:2">
+    <row r="9" spans="1:2" ht="15">
       <c r="B9" s="4" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="2:2">
+    <row r="10" spans="1:2" ht="15">
       <c r="B10" s="4" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="2:2">
+    <row r="11" spans="1:2" ht="15">
       <c r="B11" s="4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:2">
+    <row r="12" spans="1:2" ht="15">
       <c r="B12" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="2:2">
+    <row r="13" spans="1:2" ht="15">
       <c r="B13" s="4" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="2:2">
+    <row r="14" spans="1:2" ht="15">
       <c r="B14" s="4" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="2:2">
+    <row r="15" spans="1:2" ht="15">
       <c r="B15" s="4" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="2:2">
+    <row r="16" spans="1:2" ht="15">
       <c r="B16" s="4" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="2:2">
+    <row r="17" spans="2:2" ht="15">
       <c r="B17" s="4" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:2">
+    <row r="18" spans="2:2" ht="15">
       <c r="B18" s="4" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="2:2">
+    <row r="19" spans="2:2" ht="15">
       <c r="B19" s="4" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="2:2">
+    <row r="20" spans="2:2" ht="15">
       <c r="B20" s="4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="2:2">
+    <row r="21" spans="2:2" ht="15">
       <c r="B21" s="4" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="2:2">
+    <row r="22" spans="2:2" ht="15">
       <c r="B22" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="2:2">
+    <row r="23" spans="2:2" ht="15">
       <c r="B23" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="2:2">
+    <row r="24" spans="2:2" ht="15">
       <c r="B24" s="4" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="2:2">
+    <row r="25" spans="2:2" ht="15">
       <c r="B25" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="2:2">
+    <row r="26" spans="2:2" ht="15">
       <c r="B26" s="4" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="2:2">
+    <row r="27" spans="2:2" ht="15">
       <c r="B27" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="2:2">
+    <row r="28" spans="2:2" ht="15">
       <c r="B28" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="2:2">
+    <row r="29" spans="2:2" ht="15">
       <c r="B29" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="2:2">
+    <row r="30" spans="2:2" ht="15">
       <c r="B30" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="2:2">
+    <row r="31" spans="2:2" ht="15">
       <c r="B31" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="2:2">
+    <row r="32" spans="2:2" ht="15">
       <c r="B32" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="2:2">
+    <row r="33" spans="2:2" ht="15">
       <c r="B33" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="2:2">
+    <row r="34" spans="2:2" ht="15">
       <c r="B34" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="2:2">
+    <row r="35" spans="2:2" ht="15">
       <c r="B35" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="2:2">
+    <row r="36" spans="2:2" ht="15">
       <c r="B36" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="2:2">
+    <row r="37" spans="2:2" ht="15">
       <c r="B37" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="2:2">
+    <row r="38" spans="2:2" ht="15">
       <c r="B38" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="2:2">
+    <row r="39" spans="2:2" ht="15">
       <c r="B39" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="2:2">
+    <row r="40" spans="2:2" ht="15">
       <c r="B40" s="4" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="2:2">
+    <row r="41" spans="2:2" ht="15">
       <c r="B41" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="2:2">
+    <row r="42" spans="2:2" ht="15">
       <c r="B42" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="2:2">
+    <row r="43" spans="2:2" ht="15">
       <c r="B43" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="2:2">
+    <row r="44" spans="2:2" ht="15">
       <c r="B44" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="2:2">
+    <row r="45" spans="2:2" ht="15">
       <c r="B45" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="2:2">
+    <row r="46" spans="2:2" ht="15">
       <c r="B46" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="2:2">
+    <row r="47" spans="2:2" ht="15">
       <c r="B47" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="2:2">
+    <row r="48" spans="2:2" ht="15">
       <c r="B48" s="4" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="2:2">
+    <row r="49" spans="2:2" ht="15">
       <c r="B49" s="4" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="2:2">
+    <row r="50" spans="2:2" ht="15">
       <c r="B50" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="2:2">
+    <row r="51" spans="2:2" ht="15">
       <c r="B51" s="4" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="2:2">
+    <row r="52" spans="2:2" ht="15">
       <c r="B52" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="2:2">
+    <row r="53" spans="2:2" ht="15">
       <c r="B53" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="2:2">
+    <row r="54" spans="2:2" ht="15">
       <c r="B54" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="2:2">
+    <row r="55" spans="2:2" ht="15">
       <c r="B55" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="2:2">
+    <row r="56" spans="2:2" ht="15">
       <c r="B56" s="4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="2:2">
+    <row r="57" spans="2:2" ht="15">
       <c r="B57" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="2:2">
+    <row r="58" spans="2:2" ht="15">
       <c r="B58" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="2:2">
+    <row r="59" spans="2:2" ht="15">
       <c r="B59" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="2:2">
+    <row r="60" spans="2:2" ht="15">
       <c r="B60" s="4" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="2:2">
+    <row r="61" spans="2:2" ht="15">
       <c r="B61" s="4" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="2:2">
+    <row r="62" spans="2:2" ht="15">
       <c r="B62" s="4" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="2:2">
+    <row r="63" spans="2:2" ht="15">
       <c r="B63" s="4" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="2:2">
+    <row r="64" spans="2:2" ht="15">
       <c r="B64" s="4" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="2:2">
+    <row r="65" spans="1:2" ht="15">
       <c r="B65" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="2:2">
+    <row r="66" spans="1:2" ht="15">
       <c r="B66" s="4" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="2:2">
+    <row r="67" spans="1:2" ht="15">
       <c r="B67" s="4" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="68" ht="15.6" spans="2:2">
+    <row r="68" spans="1:2" ht="15">
       <c r="B68" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="2:2">
+    <row r="69" spans="1:2" ht="15">
       <c r="B69" s="4" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="2:2">
+    <row r="70" spans="1:2" ht="15">
       <c r="B70" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="2:2">
+    <row r="71" spans="1:2" ht="15">
       <c r="B71" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="2:2">
+    <row r="72" spans="1:2" ht="15">
       <c r="B72" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="2:2">
+    <row r="73" spans="1:2" ht="15">
       <c r="B73" s="4" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="2:2">
+    <row r="74" spans="1:2" ht="15">
       <c r="B74" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="2:2">
+    <row r="75" spans="1:2" ht="15">
       <c r="B75" s="4" t="s">
         <v>828</v>
       </c>
@@ -8443,17 +7826,17 @@
         <v>829</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2">
       <c r="B79" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2">
       <c r="B80" t="s">
         <v>832</v>
       </c>
@@ -8698,57 +8081,57 @@
         <v>880</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:2">
       <c r="B129" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:2">
       <c r="B130" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:2">
       <c r="B131" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:2">
       <c r="B132" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:2">
       <c r="B133" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:2">
       <c r="B134" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:2">
       <c r="B135" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="1:2">
       <c r="B136" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="1:2">
       <c r="B137" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:2">
       <c r="B138" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:2">
       <c r="B139" t="s">
         <v>891</v>
       </c>
@@ -8761,17 +8144,17 @@
         <v>892</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:2">
       <c r="A142" s="3" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:2">
       <c r="B143" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:2">
       <c r="B144" t="s">
         <v>895</v>
       </c>
@@ -8936,62 +8319,62 @@
         <v>927</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="1:2">
       <c r="B177" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:2">
       <c r="B178" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2">
       <c r="B179" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="1:2">
       <c r="B180" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="1:2">
       <c r="B181" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="1:2">
       <c r="B182" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="1:2">
       <c r="B183" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="1:2">
       <c r="B184" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="1:2">
       <c r="B185" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="1:2">
       <c r="B186" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:2">
       <c r="B187" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="1:2">
       <c r="B188" t="s">
         <v>939</v>
       </c>
@@ -9004,12 +8387,12 @@
         <v>940</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:2">
       <c r="A191" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="1:2">
       <c r="B192" t="s">
         <v>942</v>
       </c>
@@ -9094,27 +8477,27 @@
         <v>958</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="1:2">
       <c r="B209" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="1:2">
       <c r="B210" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="1:2">
       <c r="B211" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="1:2">
       <c r="B212" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="1:2">
       <c r="B213" t="s">
         <v>963</v>
       </c>
@@ -9127,87 +8510,87 @@
         <v>964</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:2">
       <c r="A216" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="1:2">
       <c r="B217" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="1:2">
       <c r="B218" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="1:2">
       <c r="B219" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="1:2">
       <c r="B220" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="1:2">
       <c r="B221" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="1:2">
       <c r="B222" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="1:2">
       <c r="B223" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="1:2">
       <c r="B224" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="1:2">
       <c r="B225" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="1:2">
       <c r="B226" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="1:2">
       <c r="B227" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="1:2">
       <c r="B228" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="1:2">
       <c r="B229" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="1:2">
       <c r="B230" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="1:2">
       <c r="B231" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="1:2">
       <c r="B232" t="s">
         <v>981</v>
       </c>
@@ -9220,32 +8603,32 @@
         <v>982</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:2">
       <c r="A235" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="1:2">
       <c r="B236" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="1:2">
       <c r="B237" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="1:2">
       <c r="B238" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="1:2">
       <c r="B239" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="1:2">
       <c r="B240" t="s">
         <v>988</v>
       </c>
@@ -9330,57 +8713,57 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="1:2">
       <c r="B257" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="1:2">
       <c r="B258" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="1:2">
       <c r="B259" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="1:2">
       <c r="B260" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="1:2">
       <c r="B261" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="1:2">
       <c r="B262" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="1:2">
       <c r="B263" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="1:2">
       <c r="B264" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="1:2">
       <c r="B265" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="1:2">
       <c r="B266" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="1:2">
       <c r="B267" t="s">
         <v>1015</v>
       </c>
@@ -9393,32 +8776,32 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="1:2">
       <c r="B271" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="1:2">
       <c r="B272" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="1:2">
       <c r="B273" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="1:2">
       <c r="B274" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="1:2">
       <c r="B275" t="s">
         <v>1022</v>
       </c>
@@ -9431,52 +8814,52 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:2">
       <c r="A278" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="1:2">
       <c r="B279" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="1:2">
       <c r="B280" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="1:2">
       <c r="B281" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="1:2">
       <c r="B282" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="1:2">
       <c r="B283" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="1:2">
       <c r="B284" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="1:2">
       <c r="B285" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="1:2">
       <c r="B286" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="1:2">
       <c r="B287" t="s">
         <v>1033</v>
       </c>
@@ -9490,36 +8873,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B140" r:id="rId1" display="http://svip.iocoder.cn/categories/Netty/"/>
-    <hyperlink ref="B288" r:id="rId2" display="http://svip.iocoder.cn/categories/JDK/"/>
+    <hyperlink ref="B140" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B288" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:1">
+    <row r="1" spans="1:1" ht="17">
       <c r="A1" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/知识列表.xlsx
+++ b/知识列表.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangxiaowei/git/note/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148927F9-4C06-5E47-A29F-0AD80296ABC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377EDE5-2AB4-1F4F-AAF0-D1BD8C9C0E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
     <sheet name="J2EE" sheetId="5" r:id="rId2"/>
-    <sheet name="分布式" sheetId="8" r:id="rId3"/>
-    <sheet name="面试题" sheetId="2" r:id="rId4"/>
-    <sheet name="数据库与缓存" sheetId="3" r:id="rId5"/>
-    <sheet name="容器化" sheetId="6" r:id="rId6"/>
-    <sheet name="源码学习提纲" sheetId="4" r:id="rId7"/>
-    <sheet name="前端" sheetId="7" r:id="rId8"/>
+    <sheet name="面试题" sheetId="2" r:id="rId3"/>
+    <sheet name="数据库与缓存" sheetId="3" r:id="rId4"/>
+    <sheet name="容器化" sheetId="6" r:id="rId5"/>
+    <sheet name="源码学习提纲" sheetId="4" r:id="rId6"/>
+    <sheet name="前端" sheetId="7" r:id="rId7"/>
+    <sheet name="精进springcloud" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1115">
   <si>
     <t>工具</t>
   </si>
@@ -3158,12 +3158,329 @@
   <si>
     <t>精尽 React 学习指南</t>
   </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis: Remote Dictionary Server (远程字典服务器)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5种基本数据类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zset</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数统计HyperLogLog</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图位置详解 Geospatial</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图场景详解 Bitmap</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道技术</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是Redis事物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis事物可以一次性执行多条命令</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它数据类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个重要的保证</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.批量操作在EXEC命令前放入缓存队列</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.收到EXEC命令后进入命令执行，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事物中任意命令执行失败，其余的命令依然执行（类似运行时异常才这样，如果是基本命令错误，所有命令都不会执行）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.在事物执行过程，其它客户端提交的命令请求不会插入到事物执行命令序列中</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个阶段</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开始事物Multi 2.命令入队 3.执行命令Exec</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物常用命令</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCARD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCH</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNWATCH</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis配置文件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis.conf</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>units单位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 .配置大小单位,开头定义了一些基本的度量单位，只支持bytes，不支持bit 2 .对大小写不敏感</t>
+  </si>
+  <si>
+    <t>includes包含</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>和我们的Struts2配置文件类似，可以通过includes包含，redis.conf可以作为总闸，包含其他</t>
+  </si>
+  <si>
+    <t>GENERAL通用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>daemonize</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>By default Redis does not run as a daemon. Use 'yes' if you need it.Note that Redis will write a pid file in /var/run/redis.pid when daemonized.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>logfile</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>syslog-enable</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>syslog-ident</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervised</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pidfile</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>loglevel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>syslog-facility</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>databases</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NETWORK网络</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>protected-mode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp-backlog</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp-keepalive</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNAPSHOTTING快照</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop-writes-on-bgsave-error</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdbcompression</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdbchecksum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbfilename</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLICATION复制拷贝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis源码解析</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>精尽 MyBatis 源码分析 —— 插件体系（二）之 PageHelper</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文文档</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bookstack.cn/read/spring-cloud-docs/docs-index.md</t>
+  </si>
+  <si>
+    <t>英文文档</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.spring.io/spring-cloud-static/Hoxton.SR1/reference/htmlsingle/</t>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/2.2.2.RELEASE/reference/htmlsingle/</t>
+  </si>
+  <si>
+    <t>Eureka服务注册与发现</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是服务治理</t>
+  </si>
+  <si>
+    <t>什么是服务注册</t>
+  </si>
+  <si>
+    <t>Eureka两组件</t>
+  </si>
+  <si>
+    <t>Eureka自我保护</t>
+  </si>
+  <si>
+    <t>注册中心Zookeeper</t>
+  </si>
+  <si>
+    <t>spring cloud学习路线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.didispace.com/spring-cloud-learning/?utm_term=yudaoyuanma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3245,8 +3562,70 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="STHeiti"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3271,6 +3650,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3289,7 +3674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3375,6 +3760,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3685,7 +4109,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -4151,47 +4575,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="101.5" customWidth="1"/>
+    <col min="1" max="2" width="30.83203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="B9" s="27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -4201,19 +4633,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B416"/>
   <sheetViews>
@@ -6289,19 +6708,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="62.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="60.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="133.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="147.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7124,28 +7543,336 @@
         <v>699</v>
       </c>
     </row>
-    <row r="145" spans="1:2" customFormat="1">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>700</v>
       </c>
       <c r="B145" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="17">
+      <c r="C145"/>
+    </row>
+    <row r="148" spans="1:3" ht="17">
       <c r="A148" s="6" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="17">
+    <row r="150" spans="1:3" ht="17">
       <c r="A150" s="1"/>
     </row>
-    <row r="152" spans="1:2" ht="17">
+    <row r="152" spans="1:3" ht="17">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="17">
+    <row r="153" spans="1:3" ht="17">
       <c r="A153" s="6" t="s">
         <v>702</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="31" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="27"/>
+      <c r="B155" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="27"/>
+      <c r="B156" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C156" s="29"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="27"/>
+      <c r="B157" s="29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C157" s="29"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="32" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="30" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="B160" s="29" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="B161" s="29" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="B162" s="29" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="B163" s="29" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="B164" s="29" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="30" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B165" s="29"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" s="29" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" s="29" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="B168" s="29" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="32" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="30" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="B171" s="29" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="B172" s="29" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="C173" s="29" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="C174" s="29" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="C175" s="29" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="30" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="B178" s="29" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="B179" s="29" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="B180" s="29" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="B181" s="29" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" s="29" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="30" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="B185" s="29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="B186" s="29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="B187" s="32" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="B188" s="30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="B189" s="30" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" s="30" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="B191" s="30" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="B192" s="30" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="B193" s="30" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="B194" s="30" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="27"/>
+      <c r="B195" s="30" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="B196" s="30" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15">
+      <c r="B197" s="33" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="B198" s="30" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199" s="30" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200" s="30" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="B201" s="30" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="B202" s="30" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15">
+      <c r="B203" s="33" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="B204" s="30" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="B205" s="30" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="B206" s="30" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207" s="30" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="B208" s="30" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="30" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="15">
+      <c r="B210" s="33" t="s">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -7155,7 +7882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:B54"/>
   <sheetViews>
@@ -7439,12 +8166,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A3:B288"/>
+  <dimension ref="A3:B328"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8872,6 +9599,179 @@
         <v>1034</v>
       </c>
     </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="B296" s="34" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="B297" s="34" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="B298" s="34" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="B299" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="B300" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="B301" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="B302" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="B303" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="B304" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="B321" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="B322" s="35" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="B323" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="B324" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="B325" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="B326" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="B327" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1016</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -8882,7 +9782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8904,4 +9804,84 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5A5FD6-49A6-6342-8BDC-2EF2C519D285}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="42" style="38" customWidth="1"/>
+    <col min="3" max="3" width="94.83203125" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="41" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="B2" s="38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="B3" s="38" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="37" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="B7" s="37" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="B8" s="37" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="B9" s="37" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="B10" s="37" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="37" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/知识列表.xlsx
+++ b/知识列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangxiaowei/git/note/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377EDE5-2AB4-1F4F-AAF0-D1BD8C9C0E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03EFC9B-4A9E-F542-93B4-7B5E6C20AC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -1680,9 +1680,6 @@
 MySQL的InnoDB存储引擎默认事务隔离级别是RR(可重复读)，是通过 "行级锁+MVCC"一起实现的，正常读的时候不加锁，写的时候加锁。而 MVCC 的实现依赖：隐藏字段、Read View、Undo log。</t>
   </si>
   <si>
-    <t>参考：（https://blog.csdn.net/Waves___/article/details/105295060）</t>
-  </si>
-  <si>
     <t>隐藏字段</t>
   </si>
   <si>
@@ -3474,6 +3471,10 @@
   </si>
   <si>
     <t>http://blog.didispace.com/spring-cloud-learning/?utm_term=yudaoyuanma</t>
+  </si>
+  <si>
+    <t>参考：（https://blog.csdn.net/Waves___/article/details/105295060）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4620,10 +4621,10 @@
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="B9" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>1105</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -6712,8 +6713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6879,682 +6880,682 @@
         <v>548</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>549</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>550</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>556</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16">
       <c r="B29" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>560</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16">
       <c r="B30" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>562</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>564</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16">
       <c r="B32" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>566</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>572</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16">
       <c r="B37" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>575</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16">
       <c r="B38" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>577</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16">
       <c r="B39" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>579</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16">
       <c r="B40" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16">
       <c r="B43" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>585</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16">
       <c r="B44" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>587</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16">
       <c r="B45" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>589</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16">
       <c r="B47" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16">
       <c r="B48" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>593</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16">
       <c r="B51" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>597</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16">
       <c r="B52" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>599</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16">
       <c r="B54" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>602</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16">
       <c r="B55" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>604</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16">
       <c r="B56" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16">
       <c r="B57" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="B64" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>634</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="B79" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>636</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>638</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>641</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>643</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="B84" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="B85" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="B86" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="B88" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="B89" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>654</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="B91" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="B93" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="B95" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>661</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="B97" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="B98" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="B99" s="20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="B100" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="B101" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="B103" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>674</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="B109" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127" spans="1:2" customFormat="1" ht="18" customHeight="1">
       <c r="A127" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="128" spans="1:2" customFormat="1">
       <c r="B128" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="129" spans="2:2" customFormat="1">
       <c r="B129" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="2:2" customFormat="1">
       <c r="B130" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131" spans="2:2" customFormat="1">
       <c r="B131" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="132" spans="2:2" customFormat="1">
       <c r="B132" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="133" spans="2:2" customFormat="1">
       <c r="B133" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="134" spans="2:2" customFormat="1">
       <c r="B134" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="135" spans="2:2" customFormat="1">
       <c r="B135" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="2:2" customFormat="1">
       <c r="B136" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="137" spans="2:2" customFormat="1">
       <c r="B137" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" spans="2:2" customFormat="1">
       <c r="B138" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" spans="2:2" customFormat="1">
       <c r="B139" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="140" spans="2:2" customFormat="1">
       <c r="B140" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="141" spans="2:2" customFormat="1">
       <c r="B141" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="142" spans="2:2" customFormat="1">
       <c r="B142" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="143" spans="2:2" customFormat="1">
       <c r="B143" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="144" spans="2:2" customFormat="1">
       <c r="B144" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>699</v>
+      </c>
+      <c r="B145" t="s">
         <v>700</v>
-      </c>
-      <c r="B145" t="s">
-        <v>701</v>
       </c>
       <c r="C145"/>
     </row>
     <row r="148" spans="1:3" ht="17">
       <c r="A148" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="17">
@@ -7565,314 +7566,314 @@
     </row>
     <row r="153" spans="1:3" ht="17">
       <c r="A153" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="31" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="27"/>
       <c r="B155" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="27"/>
       <c r="B156" s="29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C156" s="29"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="27"/>
       <c r="B157" s="29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C157" s="29"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="32" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="B160" s="29" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="B161" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="B162" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="B163" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="B164" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="30" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B165" s="29"/>
     </row>
     <row r="166" spans="1:3">
       <c r="B166" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="B167" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="B168" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="30" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="B171" s="29" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="B172" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="C173" s="29" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="C174" s="29" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="C175" s="29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="B176" s="29" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C176" s="29" t="s">
         <v>1059</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="30" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="B178" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="B179" s="29" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="B180" s="29" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="B182" s="29" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="30" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="B185" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>1069</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="B186" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C186" s="8" t="s">
         <v>1071</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="B187" s="32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="B188" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C188" s="8" t="s">
         <v>1074</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="B189" s="30" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="B190" s="30" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="B191" s="30" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="B192" s="30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="B193" s="30" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="B194" s="30" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="27"/>
       <c r="B195" s="30" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="B196" s="30" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15">
       <c r="B197" s="33" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="B198" s="30" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="B199" s="30" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="B200" s="30" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="B201" s="30" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="B202" s="30" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15">
       <c r="B203" s="33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="B204" s="30" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="B205" s="30" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="B206" s="30" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="B207" s="30" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="B208" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="30" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="15">
       <c r="B210" s="33" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -7899,142 +7900,142 @@
   <sheetData>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8042,122 +8043,122 @@
         <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
       <c r="A32" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -8182,367 +8183,367 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="B4" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="B5" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="B6" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="B7" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="B8" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="B9" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="B10" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="B11" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="B12" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="B13" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="B14" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="B15" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="B16" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15">
       <c r="B17" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15">
       <c r="B18" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15">
       <c r="B19" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15">
       <c r="B20" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15">
       <c r="B21" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15">
       <c r="B22" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15">
       <c r="B23" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15">
       <c r="B24" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15">
       <c r="B25" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15">
       <c r="B26" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15">
       <c r="B27" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15">
       <c r="B28" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15">
       <c r="B29" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15">
       <c r="B30" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15">
       <c r="B31" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15">
       <c r="B32" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15">
       <c r="B33" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15">
       <c r="B34" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15">
       <c r="B35" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15">
       <c r="B36" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15">
       <c r="B37" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15">
       <c r="B38" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15">
       <c r="B39" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15">
       <c r="B40" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15">
       <c r="B41" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15">
       <c r="B42" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="15">
       <c r="B43" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15">
       <c r="B44" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="15">
       <c r="B45" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="15">
       <c r="B46" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="15">
       <c r="B47" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15">
       <c r="B48" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="15">
       <c r="B49" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="15">
       <c r="B50" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15">
       <c r="B51" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15">
       <c r="B52" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15">
       <c r="B53" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15">
       <c r="B54" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="15">
       <c r="B55" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15">
       <c r="B56" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="15">
       <c r="B57" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="15">
       <c r="B58" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="15">
       <c r="B59" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="15">
       <c r="B60" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="15">
       <c r="B61" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="15">
       <c r="B62" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="15">
       <c r="B63" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="15">
       <c r="B64" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15">
       <c r="B65" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
       <c r="B66" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
       <c r="B67" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
       <c r="B68" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
       <c r="B69" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
       <c r="B70" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15">
       <c r="B71" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
       <c r="B72" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
       <c r="B73" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
       <c r="B74" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
       <c r="B75" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8550,317 +8551,317 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="B80" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="B129" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="B130" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="B131" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="B132" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="B133" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="B134" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="B135" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="B136" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="B137" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="B138" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="B139" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8868,242 +8869,242 @@
         <v>146</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="B143" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="B177" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="B178" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="B179" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="B180" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="B181" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="B182" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="B183" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="B184" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="B185" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="B186" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="B187" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="B188" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -9111,122 +9112,122 @@
         <v>146</v>
       </c>
       <c r="B189" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="B192" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="B209" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="B210" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="B211" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="B212" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="B213" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -9234,92 +9235,92 @@
         <v>146</v>
       </c>
       <c r="B214" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="B217" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="B218" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="B219" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="B220" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="B221" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="B222" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="B223" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="B224" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="B225" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="B226" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="B227" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="B228" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="B229" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="B230" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="B231" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="B232" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -9327,172 +9328,172 @@
         <v>146</v>
       </c>
       <c r="B233" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="B236" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="B237" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="B238" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="B239" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="B240" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="B257" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="B258" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="B259" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="B260" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="B261" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="B262" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="B263" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="B264" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="B265" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="B266" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="B267" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -9500,37 +9501,37 @@
         <v>146</v>
       </c>
       <c r="B268" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="B271" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="B272" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="B273" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="B274" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="B275" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -9538,57 +9539,57 @@
         <v>146</v>
       </c>
       <c r="B276" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="B279" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="B280" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="B281" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="B282" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="B283" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="B284" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="B285" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="B286" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="B287" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -9596,180 +9597,180 @@
         <v>146</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="B296" s="34" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="B297" s="34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="B298" s="34" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="B299" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="B300" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="B301" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="B302" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="B303" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="B304" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="320" spans="2:2">
       <c r="B320" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="B321" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="B322" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="B323" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="B324" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="B325" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="B326" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="B327" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B328" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -9797,7 +9798,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17">
       <c r="A1" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -9823,61 +9824,61 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="41" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="B2" s="38" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>1101</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="B3" s="38" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>1103</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>1113</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="37" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="B7" s="37" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="B8" s="37" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="B9" s="37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="B10" s="37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
